--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7974603076789042</v>
+        <v>0.7974603076789037</v>
       </c>
       <c r="D2">
         <v>1.019293575548813</v>
       </c>
       <c r="E2">
-        <v>0.8291927283399628</v>
+        <v>0.8291927283399627</v>
       </c>
       <c r="F2">
-        <v>0.8410523163765724</v>
+        <v>0.8410523163765723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035570223097067</v>
+        <v>1.035570223097066</v>
       </c>
       <c r="J2">
-        <v>0.828010150247068</v>
+        <v>0.8280101502470678</v>
       </c>
       <c r="K2">
         <v>1.030490507922576</v>
       </c>
       <c r="L2">
-        <v>0.8436862850589455</v>
+        <v>0.8436862850589454</v>
       </c>
       <c r="M2">
-        <v>0.8552822772596596</v>
+        <v>0.8552822772596592</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8434701783081309</v>
+        <v>0.8434701783081325</v>
       </c>
       <c r="D3">
-        <v>1.024740318513488</v>
+        <v>1.024740318513489</v>
       </c>
       <c r="E3">
-        <v>0.8691675500819431</v>
+        <v>0.8691675500819446</v>
       </c>
       <c r="F3">
-        <v>0.8809706272079582</v>
+        <v>0.8809706272079594</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040078582950673</v>
+        <v>1.040078582950674</v>
       </c>
       <c r="J3">
-        <v>0.8693766319744348</v>
+        <v>0.8693766319744364</v>
       </c>
       <c r="K3">
-        <v>1.035066133838991</v>
+        <v>1.035066133838992</v>
       </c>
       <c r="L3">
-        <v>0.8818021612422305</v>
+        <v>0.8818021612422321</v>
       </c>
       <c r="M3">
-        <v>0.8933930219789377</v>
+        <v>0.893393021978939</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8671868140606128</v>
+        <v>0.8671868140606114</v>
       </c>
       <c r="D4">
         <v>1.027776227073708</v>
       </c>
       <c r="E4">
-        <v>0.8898477460370977</v>
+        <v>0.8898477460370963</v>
       </c>
       <c r="F4">
-        <v>0.9017258385816375</v>
+        <v>0.901725838581636</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042466895740693</v>
       </c>
       <c r="J4">
-        <v>0.8907285326652742</v>
+        <v>0.8907285326652725</v>
       </c>
       <c r="K4">
         <v>1.037550588474293</v>
       </c>
       <c r="L4">
-        <v>0.9014865359437194</v>
+        <v>0.9014865359437181</v>
       </c>
       <c r="M4">
-        <v>0.9131753868254434</v>
+        <v>0.9131753868254419</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8762300286389835</v>
+        <v>0.8762300286389846</v>
       </c>
       <c r="D5">
         <v>1.028973294585808</v>
       </c>
       <c r="E5">
-        <v>0.8977436207780727</v>
+        <v>0.8977436207780731</v>
       </c>
       <c r="F5">
-        <v>0.9096658034739533</v>
+        <v>0.909665803473954</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043385887086127</v>
+        <v>1.043385887086128</v>
       </c>
       <c r="J5">
-        <v>0.8988725984326503</v>
+        <v>0.8988725984326514</v>
       </c>
       <c r="K5">
         <v>1.038518015339946</v>
       </c>
       <c r="L5">
-        <v>0.908995244654592</v>
+        <v>0.9089952446545928</v>
       </c>
       <c r="M5">
-        <v>0.9207365123976684</v>
+        <v>0.920736512397669</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8777029985949452</v>
+        <v>0.8777029985949467</v>
       </c>
       <c r="D6">
-        <v>1.029170297890399</v>
+        <v>1.0291702978904</v>
       </c>
       <c r="E6">
-        <v>0.8990301944907766</v>
+        <v>0.8990301944907779</v>
       </c>
       <c r="F6">
-        <v>0.9109602918113791</v>
+        <v>0.9109602918113806</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043535922837205</v>
       </c>
       <c r="J6">
-        <v>0.9001991851355721</v>
+        <v>0.9001991851355737</v>
       </c>
       <c r="K6">
-        <v>1.038676575694146</v>
+        <v>1.038676575694147</v>
       </c>
       <c r="L6">
-        <v>0.9102183461641046</v>
+        <v>0.910218346164106</v>
       </c>
       <c r="M6">
-        <v>0.9219688659572134</v>
+        <v>0.9219688659572148</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8673108619187452</v>
+        <v>0.8673108619187422</v>
       </c>
       <c r="D7">
-        <v>1.02779250206901</v>
+        <v>1.027792502069011</v>
       </c>
       <c r="E7">
-        <v>0.8899560196461843</v>
+        <v>0.8899560196461814</v>
       </c>
       <c r="F7">
-        <v>0.9018346629207259</v>
+        <v>0.9018346629207231</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04247947485228</v>
       </c>
       <c r="J7">
-        <v>0.8908402402642951</v>
+        <v>0.8908402402642922</v>
       </c>
       <c r="K7">
-        <v>1.037563787047887</v>
+        <v>1.037563787047888</v>
       </c>
       <c r="L7">
-        <v>0.9015895275344641</v>
+        <v>0.9015895275344613</v>
       </c>
       <c r="M7">
-        <v>0.9132790447906978</v>
+        <v>0.9132790447906951</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D8">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E8">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F8">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J8">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K8">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L8">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M8">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D9">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E9">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F9">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J9">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K9">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L9">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M9">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D10">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E10">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F10">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J10">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K10">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L10">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M10">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D11">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E11">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F11">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J11">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K11">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L11">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M11">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D12">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E12">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F12">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J12">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K12">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L12">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M12">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D13">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E13">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F13">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J13">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K13">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L13">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M13">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D14">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E14">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F14">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J14">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K14">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L14">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M14">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D15">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E15">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F15">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J15">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K15">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L15">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M15">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D16">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E16">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F16">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J16">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K16">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L16">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M16">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D17">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E17">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F17">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J17">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K17">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L17">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M17">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D18">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E18">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F18">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J18">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K18">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L18">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M18">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D19">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E19">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F19">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J19">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K19">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L19">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M19">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D20">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E20">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F20">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J20">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K20">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L20">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M20">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D21">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E21">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F21">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J21">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K21">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L21">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M21">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D22">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E22">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F22">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J22">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K22">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L22">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M22">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D23">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E23">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F23">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J23">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K23">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L23">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M23">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D24">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E24">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F24">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J24">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K24">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L24">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M24">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8147458129946477</v>
+        <v>0.8147458129946483</v>
       </c>
       <c r="D25">
-        <v>1.021269995345113</v>
+        <v>1.021269995345114</v>
       </c>
       <c r="E25">
-        <v>0.8441852539852411</v>
+        <v>0.8441852539852415</v>
       </c>
       <c r="F25">
-        <v>0.8559889375687072</v>
+        <v>0.855988937568708</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J25">
-        <v>0.8435396236205005</v>
+        <v>0.8435396236205012</v>
       </c>
       <c r="K25">
-        <v>1.032169357271812</v>
+        <v>1.032169357271813</v>
       </c>
       <c r="L25">
-        <v>0.8579910334063259</v>
+        <v>0.8579910334063262</v>
       </c>
       <c r="M25">
-        <v>0.8695517195085574</v>
+        <v>0.869551719508558</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7974603076789037</v>
+        <v>0.7974603076789042</v>
       </c>
       <c r="D2">
         <v>1.019293575548813</v>
       </c>
       <c r="E2">
-        <v>0.8291927283399627</v>
+        <v>0.8291927283399628</v>
       </c>
       <c r="F2">
-        <v>0.8410523163765723</v>
+        <v>0.8410523163765724</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035570223097066</v>
+        <v>1.035570223097067</v>
       </c>
       <c r="J2">
-        <v>0.8280101502470678</v>
+        <v>0.828010150247068</v>
       </c>
       <c r="K2">
         <v>1.030490507922576</v>
       </c>
       <c r="L2">
-        <v>0.8436862850589454</v>
+        <v>0.8436862850589455</v>
       </c>
       <c r="M2">
-        <v>0.8552822772596592</v>
+        <v>0.8552822772596596</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8434701783081325</v>
+        <v>0.8434701783081309</v>
       </c>
       <c r="D3">
-        <v>1.024740318513489</v>
+        <v>1.024740318513488</v>
       </c>
       <c r="E3">
-        <v>0.8691675500819446</v>
+        <v>0.8691675500819431</v>
       </c>
       <c r="F3">
-        <v>0.8809706272079594</v>
+        <v>0.8809706272079582</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040078582950674</v>
+        <v>1.040078582950673</v>
       </c>
       <c r="J3">
-        <v>0.8693766319744364</v>
+        <v>0.8693766319744348</v>
       </c>
       <c r="K3">
-        <v>1.035066133838992</v>
+        <v>1.035066133838991</v>
       </c>
       <c r="L3">
-        <v>0.8818021612422321</v>
+        <v>0.8818021612422305</v>
       </c>
       <c r="M3">
-        <v>0.893393021978939</v>
+        <v>0.8933930219789377</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8671868140606114</v>
+        <v>0.8671868140606128</v>
       </c>
       <c r="D4">
         <v>1.027776227073708</v>
       </c>
       <c r="E4">
-        <v>0.8898477460370963</v>
+        <v>0.8898477460370977</v>
       </c>
       <c r="F4">
-        <v>0.901725838581636</v>
+        <v>0.9017258385816375</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.042466895740693</v>
       </c>
       <c r="J4">
-        <v>0.8907285326652725</v>
+        <v>0.8907285326652742</v>
       </c>
       <c r="K4">
         <v>1.037550588474293</v>
       </c>
       <c r="L4">
-        <v>0.9014865359437181</v>
+        <v>0.9014865359437194</v>
       </c>
       <c r="M4">
-        <v>0.9131753868254419</v>
+        <v>0.9131753868254434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8762300286389846</v>
+        <v>0.8762300286389835</v>
       </c>
       <c r="D5">
         <v>1.028973294585808</v>
       </c>
       <c r="E5">
-        <v>0.8977436207780731</v>
+        <v>0.8977436207780727</v>
       </c>
       <c r="F5">
-        <v>0.909665803473954</v>
+        <v>0.9096658034739533</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043385887086128</v>
+        <v>1.043385887086127</v>
       </c>
       <c r="J5">
-        <v>0.8988725984326514</v>
+        <v>0.8988725984326503</v>
       </c>
       <c r="K5">
         <v>1.038518015339946</v>
       </c>
       <c r="L5">
-        <v>0.9089952446545928</v>
+        <v>0.908995244654592</v>
       </c>
       <c r="M5">
-        <v>0.920736512397669</v>
+        <v>0.9207365123976684</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8777029985949467</v>
+        <v>0.8777029985949452</v>
       </c>
       <c r="D6">
-        <v>1.0291702978904</v>
+        <v>1.029170297890399</v>
       </c>
       <c r="E6">
-        <v>0.8990301944907779</v>
+        <v>0.8990301944907766</v>
       </c>
       <c r="F6">
-        <v>0.9109602918113806</v>
+        <v>0.9109602918113791</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.043535922837205</v>
       </c>
       <c r="J6">
-        <v>0.9001991851355737</v>
+        <v>0.9001991851355721</v>
       </c>
       <c r="K6">
-        <v>1.038676575694147</v>
+        <v>1.038676575694146</v>
       </c>
       <c r="L6">
-        <v>0.910218346164106</v>
+        <v>0.9102183461641046</v>
       </c>
       <c r="M6">
-        <v>0.9219688659572148</v>
+        <v>0.9219688659572134</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8673108619187422</v>
+        <v>0.8673108619187452</v>
       </c>
       <c r="D7">
-        <v>1.027792502069011</v>
+        <v>1.02779250206901</v>
       </c>
       <c r="E7">
-        <v>0.8899560196461814</v>
+        <v>0.8899560196461843</v>
       </c>
       <c r="F7">
-        <v>0.9018346629207231</v>
+        <v>0.9018346629207259</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.04247947485228</v>
       </c>
       <c r="J7">
-        <v>0.8908402402642922</v>
+        <v>0.8908402402642951</v>
       </c>
       <c r="K7">
-        <v>1.037563787047888</v>
+        <v>1.037563787047887</v>
       </c>
       <c r="L7">
-        <v>0.9015895275344613</v>
+        <v>0.9015895275344641</v>
       </c>
       <c r="M7">
-        <v>0.9132790447906951</v>
+        <v>0.9132790447906978</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D8">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E8">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F8">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J8">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K8">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L8">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M8">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D9">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E9">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F9">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J9">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K9">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L9">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M9">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D10">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E10">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F10">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J10">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K10">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L10">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M10">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D11">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E11">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F11">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J11">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K11">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L11">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M11">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D12">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E12">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F12">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J12">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K12">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L12">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M12">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D13">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E13">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F13">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J13">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K13">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L13">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M13">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D14">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E14">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F14">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J14">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K14">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L14">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M14">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D15">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E15">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F15">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J15">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K15">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L15">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M15">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D16">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E16">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F16">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J16">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K16">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L16">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M16">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D17">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E17">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F17">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J17">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K17">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L17">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M17">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D18">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E18">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F18">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J18">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K18">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L18">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M18">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D19">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E19">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F19">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J19">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K19">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L19">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M19">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D20">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E20">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F20">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J20">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K20">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L20">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M20">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D21">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E21">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F21">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J21">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K21">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L21">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M21">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D22">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E22">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F22">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J22">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K22">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L22">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M22">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D23">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E23">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F23">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J23">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K23">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L23">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M23">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D24">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E24">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F24">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J24">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K24">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L24">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M24">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8147458129946483</v>
+        <v>0.8147458129946477</v>
       </c>
       <c r="D25">
-        <v>1.021269995345114</v>
+        <v>1.021269995345113</v>
       </c>
       <c r="E25">
-        <v>0.8441852539852415</v>
+        <v>0.8441852539852411</v>
       </c>
       <c r="F25">
-        <v>0.855988937568708</v>
+        <v>0.8559889375687072</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037241474837378</v>
       </c>
       <c r="J25">
-        <v>0.8435396236205012</v>
+        <v>0.8435396236205005</v>
       </c>
       <c r="K25">
-        <v>1.032169357271813</v>
+        <v>1.032169357271812</v>
       </c>
       <c r="L25">
-        <v>0.8579910334063262</v>
+        <v>0.8579910334063259</v>
       </c>
       <c r="M25">
-        <v>0.869551719508558</v>
+        <v>0.8695517195085574</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.7974603076789042</v>
+        <v>0.8064021077039856</v>
       </c>
       <c r="D2">
-        <v>1.019293575548813</v>
+        <v>1.019877125440164</v>
       </c>
       <c r="E2">
-        <v>0.8291927283399628</v>
+        <v>0.8368257927857253</v>
       </c>
       <c r="F2">
-        <v>0.8410523163765724</v>
+        <v>0.8480590610596584</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035570223097067</v>
+        <v>1.036220592160202</v>
       </c>
       <c r="J2">
-        <v>0.828010150247068</v>
+        <v>0.8364515397567597</v>
       </c>
       <c r="K2">
-        <v>1.030490507922576</v>
+        <v>1.031066315376549</v>
       </c>
       <c r="L2">
-        <v>0.8436862850589455</v>
+        <v>0.8511485541158211</v>
       </c>
       <c r="M2">
-        <v>0.8552822772596596</v>
+        <v>0.8621378767740961</v>
+      </c>
+      <c r="N2">
+        <v>0.8376393968855467</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8434701783081309</v>
+        <v>0.8511785412667786</v>
       </c>
       <c r="D3">
-        <v>1.024740318513488</v>
+        <v>1.025234808942967</v>
       </c>
       <c r="E3">
-        <v>0.8691675500819431</v>
+        <v>0.8757614168341786</v>
       </c>
       <c r="F3">
-        <v>0.8809706272079582</v>
+        <v>0.8869611985987282</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040078582950673</v>
+        <v>1.04063074511572</v>
       </c>
       <c r="J3">
-        <v>0.8693766319744348</v>
+        <v>0.8767513655711723</v>
       </c>
       <c r="K3">
-        <v>1.035066133838991</v>
+        <v>1.035554674409129</v>
       </c>
       <c r="L3">
-        <v>0.8818021612422305</v>
+        <v>0.8882765557697687</v>
       </c>
       <c r="M3">
-        <v>0.8933930219789377</v>
+        <v>0.8992786809716982</v>
+      </c>
+      <c r="N3">
+        <v>0.8779964530750707</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8671868140606128</v>
+        <v>0.8744803286722828</v>
       </c>
       <c r="D4">
-        <v>1.027776227073708</v>
+        <v>1.028239924263987</v>
       </c>
       <c r="E4">
-        <v>0.8898477460370977</v>
+        <v>0.8960916359903285</v>
       </c>
       <c r="F4">
-        <v>0.9017258385816375</v>
+        <v>0.9073704763700454</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042466895740693</v>
+        <v>1.042985357159706</v>
       </c>
       <c r="J4">
-        <v>0.8907285326652742</v>
+        <v>0.8977487394647654</v>
       </c>
       <c r="K4">
-        <v>1.037550588474293</v>
+        <v>1.038009058848396</v>
       </c>
       <c r="L4">
-        <v>0.9014865359437194</v>
+        <v>0.9076301468297194</v>
       </c>
       <c r="M4">
-        <v>0.9131753868254434</v>
+        <v>0.9187323117946367</v>
+      </c>
+      <c r="N4">
+        <v>0.8990236456480248</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8762300286389835</v>
+        <v>0.8833921044049936</v>
       </c>
       <c r="D5">
-        <v>1.028973294585808</v>
+        <v>1.029427090913493</v>
       </c>
       <c r="E5">
-        <v>0.8977436207780727</v>
+        <v>0.9038765944356407</v>
       </c>
       <c r="F5">
-        <v>0.9096658034739533</v>
+        <v>0.9152001407840614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043385887086127</v>
+        <v>1.043893565231763</v>
       </c>
       <c r="J5">
-        <v>0.8988725984326503</v>
+        <v>0.9057813110478756</v>
       </c>
       <c r="K5">
-        <v>1.038518015339946</v>
+        <v>1.038966838083572</v>
       </c>
       <c r="L5">
-        <v>0.908995244654592</v>
+        <v>0.9150343930073495</v>
       </c>
       <c r="M5">
-        <v>0.9207365123976684</v>
+        <v>0.9261889022621304</v>
+      </c>
+      <c r="N5">
+        <v>0.9070676244041322</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8777029985949452</v>
+        <v>0.8848448696245008</v>
       </c>
       <c r="D6">
-        <v>1.029170297890399</v>
+        <v>1.029622564754107</v>
       </c>
       <c r="E6">
-        <v>0.8990301944907766</v>
+        <v>0.9051461177090085</v>
       </c>
       <c r="F6">
-        <v>0.9109602918113791</v>
+        <v>0.9164776378411083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043535922837205</v>
+        <v>1.044041938160447</v>
       </c>
       <c r="J6">
-        <v>0.9001991851355721</v>
+        <v>0.9070908051789492</v>
       </c>
       <c r="K6">
-        <v>1.038676575694146</v>
+        <v>1.039123909253541</v>
       </c>
       <c r="L6">
-        <v>0.9102183461641046</v>
+        <v>0.9162414567305335</v>
       </c>
       <c r="M6">
-        <v>0.9219688659572134</v>
+        <v>0.9274051682014995</v>
+      </c>
+      <c r="N6">
+        <v>0.9083789781670728</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8673108619187452</v>
+        <v>0.8746024837744643</v>
       </c>
       <c r="D7">
-        <v>1.02779250206901</v>
+        <v>1.028256057251581</v>
       </c>
       <c r="E7">
-        <v>0.8899560196461843</v>
+        <v>0.8961983124343843</v>
       </c>
       <c r="F7">
-        <v>0.9018346629207259</v>
+        <v>0.907477715071882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04247947485228</v>
+        <v>1.042997781390495</v>
       </c>
       <c r="J7">
-        <v>0.8908402402642951</v>
+        <v>0.8978588380930218</v>
       </c>
       <c r="K7">
-        <v>1.037563787047887</v>
+        <v>1.038022118961049</v>
       </c>
       <c r="L7">
-        <v>0.9015895275344641</v>
+        <v>0.9077316326660864</v>
       </c>
       <c r="M7">
-        <v>0.9132790447906978</v>
+        <v>0.9188344658547221</v>
+      </c>
+      <c r="N7">
+        <v>0.8991339006289621</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D8">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E8">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F8">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J8">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K8">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L8">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M8">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N8">
+        <v>0.8527139207637628</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D9">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E9">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F9">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J9">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K9">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L9">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M9">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N9">
+        <v>0.8527139207637628</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D10">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E10">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F10">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J10">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K10">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L10">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M10">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N10">
+        <v>0.8527139207637628</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D11">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E11">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F11">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J11">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K11">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L11">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M11">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N11">
+        <v>0.8527139207637628</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D12">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E12">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F12">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J12">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K12">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L12">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M12">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N12">
+        <v>0.8527139207637628</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D13">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E13">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F13">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J13">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K13">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L13">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M13">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N13">
+        <v>0.8527139207637628</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D14">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E14">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F14">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J14">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K14">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L14">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M14">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N14">
+        <v>0.8527139207637628</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D15">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E15">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F15">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J15">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K15">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L15">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M15">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N15">
+        <v>0.8527139207637628</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D16">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E16">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F16">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J16">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K16">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L16">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M16">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N16">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D17">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E17">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F17">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J17">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K17">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L17">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M17">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N17">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D18">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E18">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F18">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J18">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K18">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L18">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M18">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N18">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D19">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E19">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F19">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J19">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K19">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L19">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M19">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N19">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D20">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E20">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F20">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J20">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K20">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L20">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M20">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N20">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D21">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E21">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F21">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J21">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K21">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L21">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M21">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N21">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D22">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E22">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F22">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J22">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K22">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L22">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M22">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N22">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D23">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E23">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F23">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J23">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K23">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L23">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M23">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N23">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D24">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E24">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F24">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J24">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K24">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L24">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M24">
-        <v>0.8695517195085574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N24">
+        <v>0.8527139207637628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8147458129946477</v>
+        <v>0.8231386213250783</v>
       </c>
       <c r="D25">
-        <v>1.021269995345113</v>
+        <v>1.021814244798195</v>
       </c>
       <c r="E25">
-        <v>0.8441852539852411</v>
+        <v>0.851356037399552</v>
       </c>
       <c r="F25">
-        <v>0.8559889375687072</v>
+        <v>0.8625451122582894</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037241474837378</v>
+        <v>1.037848416868745</v>
       </c>
       <c r="J25">
-        <v>0.8435396236205005</v>
+        <v>0.8515046864400653</v>
       </c>
       <c r="K25">
-        <v>1.032169357271812</v>
+        <v>1.032706618265941</v>
       </c>
       <c r="L25">
-        <v>0.8579910334063259</v>
+        <v>0.8650131352612789</v>
       </c>
       <c r="M25">
-        <v>0.8695517195085574</v>
+        <v>0.8759766992414613</v>
+      </c>
+      <c r="N25">
+        <v>0.8527139207637628</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8064021077039856</v>
+        <v>0.9773131523207553</v>
       </c>
       <c r="D2">
-        <v>1.019877125440164</v>
+        <v>1.041565089750168</v>
       </c>
       <c r="E2">
-        <v>0.8368257927857253</v>
+        <v>0.9862969169830567</v>
       </c>
       <c r="F2">
-        <v>0.8480590610596584</v>
+        <v>1.031178892819358</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036220592160202</v>
+        <v>1.054186537317287</v>
       </c>
       <c r="J2">
-        <v>0.8364515397567597</v>
+        <v>1.000194264335764</v>
       </c>
       <c r="K2">
-        <v>1.031066315376549</v>
+        <v>1.052474206025244</v>
       </c>
       <c r="L2">
-        <v>0.8511485541158211</v>
+        <v>0.9979505172645211</v>
       </c>
       <c r="M2">
-        <v>0.8621378767740961</v>
+        <v>1.042220295347479</v>
       </c>
       <c r="N2">
-        <v>0.8376393968855467</v>
+        <v>1.001614654915006</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8511785412667786</v>
+        <v>0.9858333335400542</v>
       </c>
       <c r="D3">
-        <v>1.025234808942967</v>
+        <v>1.046590370269838</v>
       </c>
       <c r="E3">
-        <v>0.8757614168341786</v>
+        <v>0.9934069716564717</v>
       </c>
       <c r="F3">
-        <v>0.8869611985987282</v>
+        <v>1.037572168759123</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04063074511572</v>
+        <v>1.056606975726342</v>
       </c>
       <c r="J3">
-        <v>0.8767513655711723</v>
+        <v>1.006717790481868</v>
       </c>
       <c r="K3">
-        <v>1.035554674409129</v>
+        <v>1.056659902179055</v>
       </c>
       <c r="L3">
-        <v>0.8882765557697687</v>
+        <v>1.004124912428512</v>
       </c>
       <c r="M3">
-        <v>0.8992786809716982</v>
+        <v>1.047745858800065</v>
       </c>
       <c r="N3">
-        <v>0.8779964530750707</v>
+        <v>1.008147445216496</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8744803286722828</v>
+        <v>0.9911614950929396</v>
       </c>
       <c r="D4">
-        <v>1.028239924263987</v>
+        <v>1.049739432668769</v>
       </c>
       <c r="E4">
-        <v>0.8960916359903285</v>
+        <v>0.9978605600029502</v>
       </c>
       <c r="F4">
-        <v>0.9073704763700454</v>
+        <v>1.041581046924084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042985357159706</v>
+        <v>1.058106396836117</v>
       </c>
       <c r="J4">
-        <v>0.8977487394647654</v>
+        <v>1.010794025174903</v>
       </c>
       <c r="K4">
-        <v>1.038009058848396</v>
+        <v>1.059272438761631</v>
       </c>
       <c r="L4">
-        <v>0.9076301468297194</v>
+        <v>1.007984874948716</v>
       </c>
       <c r="M4">
-        <v>0.9187323117946367</v>
+        <v>1.051202247381776</v>
       </c>
       <c r="N4">
-        <v>0.8990236456480248</v>
+        <v>1.012229468630347</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8833921044049936</v>
+        <v>0.9933599937122514</v>
       </c>
       <c r="D5">
-        <v>1.029427090913493</v>
+        <v>1.05103999064506</v>
       </c>
       <c r="E5">
-        <v>0.9038765944356407</v>
+        <v>0.999699804183658</v>
       </c>
       <c r="F5">
-        <v>0.9152001407840614</v>
+        <v>1.043237430294462</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043893565231763</v>
+        <v>1.058721502425584</v>
       </c>
       <c r="J5">
-        <v>0.9057813110478756</v>
+        <v>1.012475063082134</v>
       </c>
       <c r="K5">
-        <v>1.038966838083572</v>
+        <v>1.060348938563621</v>
       </c>
       <c r="L5">
-        <v>0.9150343930073495</v>
+        <v>1.009577162459395</v>
       </c>
       <c r="M5">
-        <v>0.9261889022621304</v>
+        <v>1.052628350224113</v>
       </c>
       <c r="N5">
-        <v>0.9070676244041322</v>
+        <v>1.013912893804223</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8848448696245008</v>
+        <v>0.9937267769664651</v>
       </c>
       <c r="D6">
-        <v>1.029622564754107</v>
+        <v>1.051257027854458</v>
       </c>
       <c r="E6">
-        <v>0.9051461177090085</v>
+        <v>1.000006742903526</v>
       </c>
       <c r="F6">
-        <v>0.9164776378411083</v>
+        <v>1.04351389316146</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044041938160447</v>
+        <v>1.058823907071931</v>
       </c>
       <c r="J6">
-        <v>0.9070908051789492</v>
+        <v>1.012755461295187</v>
       </c>
       <c r="K6">
-        <v>1.039123909253541</v>
+        <v>1.060528439994426</v>
       </c>
       <c r="L6">
-        <v>0.9162414567305335</v>
+        <v>1.00984278263325</v>
       </c>
       <c r="M6">
-        <v>0.9274051682014995</v>
+        <v>1.052866259943783</v>
       </c>
       <c r="N6">
-        <v>0.9083789781670728</v>
+        <v>1.014193690214901</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8746024837744643</v>
+        <v>0.9911910309257328</v>
       </c>
       <c r="D7">
-        <v>1.028256057251581</v>
+        <v>1.049756900787011</v>
       </c>
       <c r="E7">
-        <v>0.8961983124343843</v>
+        <v>0.9978852632000204</v>
       </c>
       <c r="F7">
-        <v>0.907477715071882</v>
+        <v>1.041603291223748</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042997781390495</v>
+        <v>1.058114674914505</v>
       </c>
       <c r="J7">
-        <v>0.8978588380930218</v>
+        <v>1.010816612818643</v>
       </c>
       <c r="K7">
-        <v>1.038022118961049</v>
+        <v>1.059286907267964</v>
       </c>
       <c r="L7">
-        <v>0.9077316326660864</v>
+        <v>1.00800626834809</v>
       </c>
       <c r="M7">
-        <v>0.9188344658547221</v>
+        <v>1.051221407063664</v>
       </c>
       <c r="N7">
-        <v>0.8991339006289621</v>
+        <v>1.012252088351131</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8231386213250783</v>
+        <v>0.9802326745558005</v>
       </c>
       <c r="D8">
-        <v>1.021814244798195</v>
+        <v>1.04328545431048</v>
       </c>
       <c r="E8">
-        <v>0.851356037399552</v>
+        <v>0.9887316242118966</v>
       </c>
       <c r="F8">
-        <v>0.8625451122582894</v>
+        <v>1.033367104288852</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037848416868745</v>
+        <v>1.055018823156797</v>
       </c>
       <c r="J8">
-        <v>0.8515046864400653</v>
+        <v>1.002430248166823</v>
       </c>
       <c r="K8">
-        <v>1.032706618265941</v>
+        <v>1.05390936012702</v>
       </c>
       <c r="L8">
-        <v>0.8650131352612789</v>
+        <v>1.000066427710343</v>
       </c>
       <c r="M8">
-        <v>0.8759766992414613</v>
+        <v>1.044113297469791</v>
       </c>
       <c r="N8">
-        <v>0.8527139207637628</v>
+        <v>1.003853814099577</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8231386213250783</v>
+        <v>0.9593625274057176</v>
       </c>
       <c r="D9">
-        <v>1.021814244798195</v>
+        <v>1.031032364625678</v>
       </c>
       <c r="E9">
-        <v>0.851356037399552</v>
+        <v>0.9713651266388378</v>
       </c>
       <c r="F9">
-        <v>0.8625451122582894</v>
+        <v>1.017788115197066</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037848416868745</v>
+        <v>1.049015194807765</v>
       </c>
       <c r="J9">
-        <v>0.8515046864400653</v>
+        <v>0.9864366793601492</v>
       </c>
       <c r="K9">
-        <v>1.032706618265941</v>
+        <v>1.043641256523588</v>
       </c>
       <c r="L9">
-        <v>0.8650131352612789</v>
+        <v>0.9849405225663774</v>
       </c>
       <c r="M9">
-        <v>0.8759766992414613</v>
+        <v>1.030599037615938</v>
       </c>
       <c r="N9">
-        <v>0.8527139207637628</v>
+        <v>0.9878375325907091</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8231386213250783</v>
+        <v>0.9441676163530265</v>
       </c>
       <c r="D10">
-        <v>1.021814244798195</v>
+        <v>1.022190780820869</v>
       </c>
       <c r="E10">
-        <v>0.851356037399552</v>
+        <v>0.9587783494006663</v>
       </c>
       <c r="F10">
-        <v>0.8625451122582894</v>
+        <v>1.006548564245297</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037848416868745</v>
+        <v>1.044584693819041</v>
       </c>
       <c r="J10">
-        <v>0.8515046864400653</v>
+        <v>0.9747859719101205</v>
       </c>
       <c r="K10">
-        <v>1.032706618265941</v>
+        <v>1.036170608710564</v>
       </c>
       <c r="L10">
-        <v>0.8650131352612789</v>
+        <v>0.9739340149879537</v>
       </c>
       <c r="M10">
-        <v>0.8759766992414613</v>
+        <v>1.020800580467888</v>
       </c>
       <c r="N10">
-        <v>0.8527139207637628</v>
+        <v>0.9761702797997467</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8231386213250783</v>
+        <v>0.9372204976473355</v>
       </c>
       <c r="D11">
-        <v>1.021814244798195</v>
+        <v>1.018175372959212</v>
       </c>
       <c r="E11">
-        <v>0.851356037399552</v>
+        <v>0.9530404332677965</v>
       </c>
       <c r="F11">
-        <v>0.8625451122582894</v>
+        <v>1.001442342289905</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037848416868745</v>
+        <v>1.042548669167787</v>
       </c>
       <c r="J11">
-        <v>0.8515046864400653</v>
+        <v>0.969460089599559</v>
       </c>
       <c r="K11">
-        <v>1.032706618265941</v>
+        <v>1.032762479542781</v>
       </c>
       <c r="L11">
-        <v>0.8650131352612789</v>
+        <v>0.9689058145629827</v>
       </c>
       <c r="M11">
-        <v>0.8759766992414613</v>
+        <v>1.016337109311992</v>
       </c>
       <c r="N11">
-        <v>0.8527139207637628</v>
+        <v>0.9708368341254168</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8231386213250783</v>
+        <v>0.9345782710200583</v>
       </c>
       <c r="D12">
-        <v>1.021814244798195</v>
+        <v>1.016653025427059</v>
       </c>
       <c r="E12">
-        <v>0.851356037399552</v>
+        <v>0.9508609427220072</v>
       </c>
       <c r="F12">
-        <v>0.8625451122582894</v>
+        <v>0.9995059527711537</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037848416868745</v>
+        <v>1.041773106531498</v>
       </c>
       <c r="J12">
-        <v>0.8515046864400653</v>
+        <v>0.967434831477162</v>
       </c>
       <c r="K12">
-        <v>1.032706618265941</v>
+        <v>1.03146798616498</v>
       </c>
       <c r="L12">
-        <v>0.8650131352612789</v>
+        <v>0.9669942676839635</v>
       </c>
       <c r="M12">
-        <v>0.8759766992414613</v>
+        <v>1.014642624070859</v>
       </c>
       <c r="N12">
-        <v>0.8527139207637628</v>
+        <v>0.9688086999041859</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8231386213250783</v>
+        <v>0.9351479491368845</v>
       </c>
       <c r="D13">
-        <v>1.021814244798195</v>
+        <v>1.016981019014483</v>
       </c>
       <c r="E13">
-        <v>0.851356037399552</v>
+        <v>0.951330719048622</v>
       </c>
       <c r="F13">
-        <v>0.8625451122582894</v>
+        <v>0.9999231784483416</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037848416868745</v>
+        <v>1.041940369301353</v>
       </c>
       <c r="J13">
-        <v>0.8515046864400653</v>
+        <v>0.9678714677008693</v>
       </c>
       <c r="K13">
-        <v>1.032706618265941</v>
+        <v>1.031746996841011</v>
       </c>
       <c r="L13">
-        <v>0.8650131352612789</v>
+        <v>0.9674063646075516</v>
       </c>
       <c r="M13">
-        <v>0.8759766992414613</v>
+        <v>1.015007811526528</v>
       </c>
       <c r="N13">
-        <v>0.8527139207637628</v>
+        <v>0.9692459562014136</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8231386213250783</v>
+        <v>0.9370033918807953</v>
       </c>
       <c r="D14">
-        <v>1.021814244798195</v>
+        <v>1.018050181981212</v>
       </c>
       <c r="E14">
-        <v>0.851356037399552</v>
+        <v>0.9528612900973932</v>
       </c>
       <c r="F14">
-        <v>0.8625451122582894</v>
+        <v>1.001283113563795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037848416868745</v>
+        <v>1.042484964798722</v>
       </c>
       <c r="J14">
-        <v>0.8515046864400653</v>
+        <v>0.9692936700498473</v>
       </c>
       <c r="K14">
-        <v>1.032706618265941</v>
+        <v>1.032656075015912</v>
       </c>
       <c r="L14">
-        <v>0.8650131352612789</v>
+        <v>0.9687487283157932</v>
       </c>
       <c r="M14">
-        <v>0.8759766992414613</v>
+        <v>1.016197809895203</v>
       </c>
       <c r="N14">
-        <v>0.8527139207637628</v>
+        <v>0.970670178240856</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8231386213250783</v>
+        <v>0.9381381940305615</v>
       </c>
       <c r="D15">
-        <v>1.021814244798195</v>
+        <v>1.018704751323136</v>
       </c>
       <c r="E15">
-        <v>0.851356037399552</v>
+        <v>0.9537977804341186</v>
       </c>
       <c r="F15">
-        <v>0.8625451122582894</v>
+        <v>1.002115630447553</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037848416868745</v>
+        <v>1.042817898628452</v>
       </c>
       <c r="J15">
-        <v>0.8515046864400653</v>
+        <v>0.9701635535529523</v>
       </c>
       <c r="K15">
-        <v>1.032706618265941</v>
+        <v>1.033212320942228</v>
       </c>
       <c r="L15">
-        <v>0.8650131352612789</v>
+        <v>0.9695698471639176</v>
       </c>
       <c r="M15">
-        <v>0.8759766992414613</v>
+        <v>1.016926052660902</v>
       </c>
       <c r="N15">
-        <v>0.8527139207637628</v>
+        <v>0.9715412970783125</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8231386213250783</v>
+        <v>0.9446203955775695</v>
       </c>
       <c r="D16">
-        <v>1.021814244798195</v>
+        <v>1.022453105384728</v>
       </c>
       <c r="E16">
-        <v>0.851356037399552</v>
+        <v>0.9591526895210217</v>
       </c>
       <c r="F16">
-        <v>0.8625451122582894</v>
+        <v>1.006882096723702</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037848416868745</v>
+        <v>1.044717207487699</v>
       </c>
       <c r="J16">
-        <v>0.8515046864400653</v>
+        <v>0.975133122588239</v>
       </c>
       <c r="K16">
-        <v>1.032706618265941</v>
+        <v>1.036392937013885</v>
       </c>
       <c r="L16">
-        <v>0.8650131352612789</v>
+        <v>0.974261830701879</v>
       </c>
       <c r="M16">
-        <v>0.8759766992414613</v>
+        <v>1.021091878727257</v>
       </c>
       <c r="N16">
-        <v>0.8527139207637628</v>
+        <v>0.976517923471647</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8231386213250783</v>
+        <v>0.9485838063713603</v>
       </c>
       <c r="D17">
-        <v>1.021814244798195</v>
+        <v>1.024752477729906</v>
       </c>
       <c r="E17">
-        <v>0.851356037399552</v>
+        <v>0.9624313958998677</v>
       </c>
       <c r="F17">
-        <v>0.8625451122582894</v>
+        <v>1.009805409496553</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037848416868745</v>
+        <v>1.045876040526624</v>
       </c>
       <c r="J17">
-        <v>0.8515046864400653</v>
+        <v>0.9781720288572704</v>
       </c>
       <c r="K17">
-        <v>1.032706618265941</v>
+        <v>1.038339992686732</v>
       </c>
       <c r="L17">
-        <v>0.8650131352612789</v>
+        <v>0.9771318437783645</v>
       </c>
       <c r="M17">
-        <v>0.8759766992414613</v>
+        <v>1.023643671239015</v>
       </c>
       <c r="N17">
-        <v>0.8527139207637628</v>
+        <v>0.9795611453361476</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8231386213250783</v>
+        <v>0.9508606200685997</v>
       </c>
       <c r="D18">
-        <v>1.021814244798195</v>
+        <v>1.026075832372271</v>
       </c>
       <c r="E18">
-        <v>0.851356037399552</v>
+        <v>0.9643164180432369</v>
       </c>
       <c r="F18">
-        <v>0.8625451122582894</v>
+        <v>1.011487708577558</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037848416868745</v>
+        <v>1.046540744827351</v>
       </c>
       <c r="J18">
-        <v>0.8515046864400653</v>
+        <v>0.979917813864169</v>
       </c>
       <c r="K18">
-        <v>1.032706618265941</v>
+        <v>1.039459147210265</v>
       </c>
       <c r="L18">
-        <v>0.8650131352612789</v>
+        <v>0.9787808997727564</v>
       </c>
       <c r="M18">
-        <v>0.8759766992414613</v>
+        <v>1.025111052260373</v>
       </c>
       <c r="N18">
-        <v>0.8527139207637628</v>
+        <v>0.9813094095580005</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8231386213250783</v>
+        <v>0.9516312031082645</v>
       </c>
       <c r="D19">
-        <v>1.021814244798195</v>
+        <v>1.026524114916116</v>
       </c>
       <c r="E19">
-        <v>0.851356037399552</v>
+        <v>0.9649546531084521</v>
       </c>
       <c r="F19">
-        <v>0.8625451122582894</v>
+        <v>1.012057562878653</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037848416868745</v>
+        <v>1.046765533510137</v>
       </c>
       <c r="J19">
-        <v>0.8515046864400653</v>
+        <v>0.9805086752647512</v>
       </c>
       <c r="K19">
-        <v>1.032706618265941</v>
+        <v>1.039838016765208</v>
       </c>
       <c r="L19">
-        <v>0.8650131352612789</v>
+        <v>0.9793390726376074</v>
       </c>
       <c r="M19">
-        <v>0.8759766992414613</v>
+        <v>1.025607917964573</v>
       </c>
       <c r="N19">
-        <v>0.8527139207637628</v>
+        <v>0.9819011100495441</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8231386213250783</v>
+        <v>0.9481622314554794</v>
       </c>
       <c r="D20">
-        <v>1.021814244798195</v>
+        <v>1.024507639729344</v>
       </c>
       <c r="E20">
-        <v>0.851356037399552</v>
+        <v>0.9620824881693371</v>
       </c>
       <c r="F20">
-        <v>0.8625451122582894</v>
+        <v>1.009494151262863</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037848416868745</v>
+        <v>1.04575288055055</v>
       </c>
       <c r="J20">
-        <v>0.8515046864400653</v>
+        <v>0.9778487826112906</v>
       </c>
       <c r="K20">
-        <v>1.032706618265941</v>
+        <v>1.0381328188594</v>
       </c>
       <c r="L20">
-        <v>0.8650131352612789</v>
+        <v>0.9768265315296066</v>
       </c>
       <c r="M20">
-        <v>0.8759766992414613</v>
+        <v>1.023372086833015</v>
       </c>
       <c r="N20">
-        <v>0.8527139207637628</v>
+        <v>0.9792374400434218</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8231386213250783</v>
+        <v>0.9364587729934649</v>
       </c>
       <c r="D21">
-        <v>1.021814244798195</v>
+        <v>1.017736215960318</v>
       </c>
       <c r="E21">
-        <v>0.851356037399552</v>
+        <v>0.9524119486561263</v>
       </c>
       <c r="F21">
-        <v>0.8625451122582894</v>
+        <v>1.000883775797222</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037848416868745</v>
+        <v>1.042325141913479</v>
       </c>
       <c r="J21">
-        <v>0.8515046864400653</v>
+        <v>0.9688762062400663</v>
       </c>
       <c r="K21">
-        <v>1.032706618265941</v>
+        <v>1.032389184908477</v>
       </c>
       <c r="L21">
-        <v>0.8650131352612789</v>
+        <v>0.9683546854663386</v>
       </c>
       <c r="M21">
-        <v>0.8759766992414613</v>
+        <v>1.015848424097435</v>
       </c>
       <c r="N21">
-        <v>0.8527139207637628</v>
+        <v>0.9702521215845813</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8231386213250783</v>
+        <v>0.9287389423953057</v>
       </c>
       <c r="D22">
-        <v>1.021814244798195</v>
+        <v>1.013298586301873</v>
       </c>
       <c r="E22">
-        <v>0.851356037399552</v>
+        <v>0.9460498998061476</v>
       </c>
       <c r="F22">
-        <v>0.8625451122582894</v>
+        <v>0.9952380224066074</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037848416868745</v>
+        <v>1.040057361350192</v>
       </c>
       <c r="J22">
-        <v>0.8515046864400653</v>
+        <v>0.9629599559473687</v>
       </c>
       <c r="K22">
-        <v>1.032706618265941</v>
+        <v>1.028611120176448</v>
       </c>
       <c r="L22">
-        <v>0.8650131352612789</v>
+        <v>0.9627716290204265</v>
       </c>
       <c r="M22">
-        <v>0.8759766992414613</v>
+        <v>1.010904408960538</v>
       </c>
       <c r="N22">
-        <v>0.8527139207637628</v>
+        <v>0.964327469537865</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8231386213250783</v>
+        <v>0.9328681098237738</v>
       </c>
       <c r="D23">
-        <v>1.021814244798195</v>
+        <v>1.015669174573886</v>
       </c>
       <c r="E23">
-        <v>0.851356037399552</v>
+        <v>0.9494511272722548</v>
       </c>
       <c r="F23">
-        <v>0.8625451122582894</v>
+        <v>0.9982543513906675</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037848416868745</v>
+        <v>1.041270843805798</v>
       </c>
       <c r="J23">
-        <v>0.8515046864400653</v>
+        <v>0.9661241314035384</v>
       </c>
       <c r="K23">
-        <v>1.032706618265941</v>
+        <v>1.030630708778503</v>
       </c>
       <c r="L23">
-        <v>0.8650131352612789</v>
+        <v>0.9657573079051662</v>
       </c>
       <c r="M23">
-        <v>0.8759766992414613</v>
+        <v>1.01354685405714</v>
       </c>
       <c r="N23">
-        <v>0.8527139207637628</v>
+        <v>0.9674961384861183</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8231386213250783</v>
+        <v>0.9483528306219304</v>
       </c>
       <c r="D24">
-        <v>1.021814244798195</v>
+        <v>1.024618326380758</v>
       </c>
       <c r="E24">
-        <v>0.851356037399552</v>
+        <v>0.9622402288394506</v>
       </c>
       <c r="F24">
-        <v>0.8625451122582894</v>
+        <v>1.009634865705268</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037848416868745</v>
+        <v>1.045808565806152</v>
       </c>
       <c r="J24">
-        <v>0.8515046864400653</v>
+        <v>0.9779949260141818</v>
       </c>
       <c r="K24">
-        <v>1.032706618265941</v>
+        <v>1.038226482691041</v>
       </c>
       <c r="L24">
-        <v>0.8650131352612789</v>
+        <v>0.9769645658432787</v>
       </c>
       <c r="M24">
-        <v>0.8759766992414613</v>
+        <v>1.023494868894205</v>
       </c>
       <c r="N24">
-        <v>0.8527139207637628</v>
+        <v>0.9793837909867079</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8231386213250783</v>
+        <v>0.964964810128688</v>
       </c>
       <c r="D25">
-        <v>1.021814244798195</v>
+        <v>1.034310432364275</v>
       </c>
       <c r="E25">
-        <v>0.851356037399552</v>
+        <v>0.9760181467734862</v>
       </c>
       <c r="F25">
-        <v>0.8625451122582894</v>
+        <v>1.021954974952779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037848416868745</v>
+        <v>1.050637899692881</v>
       </c>
       <c r="J25">
-        <v>0.8515046864400653</v>
+        <v>0.9907316425229085</v>
       </c>
       <c r="K25">
-        <v>1.032706618265941</v>
+        <v>1.046398487690483</v>
       </c>
       <c r="L25">
-        <v>0.8650131352612789</v>
+        <v>0.9890005196851295</v>
       </c>
       <c r="M25">
-        <v>0.8759766992414613</v>
+        <v>1.034221766978491</v>
       </c>
       <c r="N25">
-        <v>0.8527139207637628</v>
+        <v>0.9921385950937989</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9773131523207553</v>
+        <v>0.9579485478811424</v>
       </c>
       <c r="D2">
-        <v>1.041565089750168</v>
+        <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>0.9862969169830567</v>
+        <v>0.9700542965998483</v>
       </c>
       <c r="F2">
-        <v>1.031178892819358</v>
+        <v>0.9324254259529805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054186537317287</v>
+        <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>1.000194264335764</v>
+        <v>0.9814641205734456</v>
       </c>
       <c r="K2">
-        <v>1.052474206025244</v>
+        <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>0.9979505172645211</v>
+        <v>0.9819472117454191</v>
       </c>
       <c r="M2">
-        <v>1.042220295347479</v>
+        <v>0.9449139967932566</v>
       </c>
       <c r="N2">
-        <v>1.001614654915006</v>
+        <v>0.9975761866928806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9858333335400542</v>
+        <v>0.9633269577642326</v>
       </c>
       <c r="D3">
-        <v>1.046590370269838</v>
+        <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>0.9934069716564717</v>
+        <v>0.9743752803874034</v>
       </c>
       <c r="F3">
-        <v>1.037572168759123</v>
+        <v>0.9407736036627249</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056606975726342</v>
+        <v>1.049552168686541</v>
       </c>
       <c r="J3">
-        <v>1.006717790481868</v>
+        <v>0.9848698693453306</v>
       </c>
       <c r="K3">
-        <v>1.056659902179055</v>
+        <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>1.004124912428512</v>
+        <v>0.9853468848820134</v>
       </c>
       <c r="M3">
-        <v>1.047745858800065</v>
+        <v>0.9522249147171994</v>
       </c>
       <c r="N3">
-        <v>1.008147445216496</v>
+        <v>0.9987662937553543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9911614950929396</v>
+        <v>0.966718024260288</v>
       </c>
       <c r="D4">
-        <v>1.049739432668769</v>
+        <v>1.028866762049402</v>
       </c>
       <c r="E4">
-        <v>0.9978605600029502</v>
+        <v>0.9771064133042652</v>
       </c>
       <c r="F4">
-        <v>1.041581046924084</v>
+        <v>0.9460168870968086</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058106396836117</v>
+        <v>1.050346101611163</v>
       </c>
       <c r="J4">
-        <v>1.010794025174903</v>
+        <v>0.9870131806027862</v>
       </c>
       <c r="K4">
-        <v>1.059272438761631</v>
+        <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>1.007984874948716</v>
+        <v>0.9874892292024849</v>
       </c>
       <c r="M4">
-        <v>1.051202247381776</v>
+        <v>0.9568136768748502</v>
       </c>
       <c r="N4">
-        <v>1.012229468630347</v>
+        <v>0.9995144411480156</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9933599937122514</v>
+        <v>0.9681233544498589</v>
       </c>
       <c r="D5">
-        <v>1.05103999064506</v>
+        <v>1.029773185199953</v>
       </c>
       <c r="E5">
-        <v>0.999699804183658</v>
+        <v>0.9782398134791518</v>
       </c>
       <c r="F5">
-        <v>1.043237430294462</v>
+        <v>0.94818554991034</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058721502425584</v>
+        <v>1.050666288111991</v>
       </c>
       <c r="J5">
-        <v>1.012475063082134</v>
+        <v>0.9879004498249212</v>
       </c>
       <c r="K5">
-        <v>1.060348938563621</v>
+        <v>1.039309142812778</v>
       </c>
       <c r="L5">
-        <v>1.009577162459395</v>
+        <v>0.9883767614277499</v>
       </c>
       <c r="M5">
-        <v>1.052628350224113</v>
+        <v>0.958710846261091</v>
       </c>
       <c r="N5">
-        <v>1.013912893804223</v>
+        <v>0.9998239402806027</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9937267769664651</v>
+        <v>0.9683581560840536</v>
       </c>
       <c r="D6">
-        <v>1.051257027854458</v>
+        <v>1.029924063371728</v>
       </c>
       <c r="E6">
-        <v>1.000006742903526</v>
+        <v>0.9784292711889748</v>
       </c>
       <c r="F6">
-        <v>1.04351389316146</v>
+        <v>0.9485476538046039</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058823907071931</v>
+        <v>1.050719259225548</v>
       </c>
       <c r="J6">
-        <v>1.012755461295187</v>
+        <v>0.9880486372856183</v>
       </c>
       <c r="K6">
-        <v>1.060528439994426</v>
+        <v>1.039422122093371</v>
       </c>
       <c r="L6">
-        <v>1.00984278263325</v>
+        <v>0.9885250312108025</v>
       </c>
       <c r="M6">
-        <v>1.052866259943783</v>
+        <v>0.9590275715264019</v>
       </c>
       <c r="N6">
-        <v>1.014193690214901</v>
+        <v>0.9998756183614798</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9911910309257328</v>
+        <v>0.9667368806688124</v>
       </c>
       <c r="D7">
-        <v>1.049756900787011</v>
+        <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>0.9978852632000204</v>
+        <v>0.9771216149270425</v>
       </c>
       <c r="F7">
-        <v>1.041603291223748</v>
+        <v>0.9460460018697399</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058114674914505</v>
+        <v>1.050350433012134</v>
       </c>
       <c r="J7">
-        <v>1.010816612818643</v>
+        <v>0.987025089606449</v>
       </c>
       <c r="K7">
-        <v>1.059286907267964</v>
+        <v>1.03863801414487</v>
       </c>
       <c r="L7">
-        <v>1.00800626834809</v>
+        <v>0.987501139139946</v>
       </c>
       <c r="M7">
-        <v>1.051221407063664</v>
+        <v>0.9568391499295099</v>
       </c>
       <c r="N7">
-        <v>1.012252088351131</v>
+        <v>0.9995185961346695</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9802326745558005</v>
+        <v>0.9597853264300785</v>
       </c>
       <c r="D8">
-        <v>1.04328545431048</v>
+        <v>1.024316734034519</v>
       </c>
       <c r="E8">
-        <v>0.9887316242118966</v>
+        <v>0.9715284891839455</v>
       </c>
       <c r="F8">
-        <v>1.033367104288852</v>
+        <v>0.9352810384625575</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055018823156797</v>
+        <v>1.04869285524892</v>
       </c>
       <c r="J8">
-        <v>1.002430248166823</v>
+        <v>0.9826280558903956</v>
       </c>
       <c r="K8">
-        <v>1.05390936012702</v>
+        <v>1.03517709359159</v>
       </c>
       <c r="L8">
-        <v>1.000066427710343</v>
+        <v>0.9831084545181819</v>
       </c>
       <c r="M8">
-        <v>1.044113297469791</v>
+        <v>0.9474154113007931</v>
       </c>
       <c r="N8">
-        <v>1.003853814099577</v>
+        <v>0.9979830733841405</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9593625274057176</v>
+        <v>0.9468007869254523</v>
       </c>
       <c r="D9">
-        <v>1.031032364625678</v>
+        <v>1.015507248178863</v>
       </c>
       <c r="E9">
-        <v>0.9713651266388378</v>
+        <v>0.9611390090764109</v>
       </c>
       <c r="F9">
-        <v>1.017788115197066</v>
+        <v>0.9149797869050242</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049015194807765</v>
+        <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>0.9864366793601492</v>
+        <v>0.9743828972372879</v>
       </c>
       <c r="K9">
-        <v>1.043641256523588</v>
+        <v>1.028353643349235</v>
       </c>
       <c r="L9">
-        <v>0.9849405225663774</v>
+        <v>0.974895700299456</v>
       </c>
       <c r="M9">
-        <v>1.030599037615938</v>
+        <v>0.9296213473758322</v>
       </c>
       <c r="N9">
-        <v>0.9878375325907091</v>
+        <v>0.9950980039690246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9441676163530265</v>
+        <v>0.9375684830163677</v>
       </c>
       <c r="D10">
-        <v>1.022190780820869</v>
+        <v>1.009074118800383</v>
       </c>
       <c r="E10">
-        <v>0.9587783494006663</v>
+        <v>0.9537959726989974</v>
       </c>
       <c r="F10">
-        <v>1.006548564245297</v>
+        <v>0.9003622216808118</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044584693819041</v>
+        <v>1.042740418255069</v>
       </c>
       <c r="J10">
-        <v>0.9747859719101205</v>
+        <v>0.9684984444397379</v>
       </c>
       <c r="K10">
-        <v>1.036170608710564</v>
+        <v>1.023281447481244</v>
       </c>
       <c r="L10">
-        <v>0.9739340149879537</v>
+        <v>0.9690527632806326</v>
       </c>
       <c r="M10">
-        <v>1.020800580467888</v>
+        <v>0.9167980599729704</v>
       </c>
       <c r="N10">
-        <v>0.9761702797997467</v>
+        <v>0.9930363614252332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9372204976473355</v>
+        <v>0.9334129918157617</v>
       </c>
       <c r="D11">
-        <v>1.018175372959212</v>
+        <v>1.006144924351871</v>
       </c>
       <c r="E11">
-        <v>0.9530404332677965</v>
+        <v>0.9505025091571975</v>
       </c>
       <c r="F11">
-        <v>1.001442342289905</v>
+        <v>0.893725440921452</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042548669167787</v>
+        <v>1.041542536238143</v>
       </c>
       <c r="J11">
-        <v>0.969460089599559</v>
+        <v>0.9658444990194033</v>
       </c>
       <c r="K11">
-        <v>1.032762479542781</v>
+        <v>1.02095187941545</v>
       </c>
       <c r="L11">
-        <v>0.9689058145629827</v>
+        <v>0.9664224037695216</v>
       </c>
       <c r="M11">
-        <v>1.016337109311992</v>
+        <v>0.9109744503736821</v>
       </c>
       <c r="N11">
-        <v>0.9708368341254168</v>
+        <v>0.9921062302914592</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9345782710200583</v>
+        <v>0.9318436687476382</v>
       </c>
       <c r="D12">
-        <v>1.016653025427059</v>
+        <v>1.005034294761868</v>
       </c>
       <c r="E12">
-        <v>0.9508609427220072</v>
+        <v>0.9492605915504059</v>
       </c>
       <c r="F12">
-        <v>0.9995059527711537</v>
+        <v>0.8912090268062499</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041773106531498</v>
+        <v>1.041084745136767</v>
       </c>
       <c r="J12">
-        <v>0.967434831477162</v>
+        <v>0.9648414153495264</v>
       </c>
       <c r="K12">
-        <v>1.03146798616498</v>
+        <v>1.020065677037083</v>
       </c>
       <c r="L12">
-        <v>0.9669942676839635</v>
+        <v>0.9654290134301796</v>
       </c>
       <c r="M12">
-        <v>1.014642624070859</v>
+        <v>0.9087662510348528</v>
       </c>
       <c r="N12">
-        <v>0.9688086999041859</v>
+        <v>0.9917546603309014</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9351479491368845</v>
+        <v>0.9321814970377231</v>
       </c>
       <c r="D13">
-        <v>1.016981019014483</v>
+        <v>1.005273568579274</v>
       </c>
       <c r="E13">
-        <v>0.951330719048622</v>
+        <v>0.9495278534437021</v>
       </c>
       <c r="F13">
-        <v>0.9999231784483416</v>
+        <v>0.8917512133647502</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041940369301353</v>
+        <v>1.041183532369408</v>
       </c>
       <c r="J13">
-        <v>0.9678714677008693</v>
+        <v>0.9650573866561774</v>
       </c>
       <c r="K13">
-        <v>1.031746996841011</v>
+        <v>1.020256731067154</v>
       </c>
       <c r="L13">
-        <v>0.9674063646075516</v>
+        <v>0.9656428616942665</v>
       </c>
       <c r="M13">
-        <v>1.015007811526528</v>
+        <v>0.9092420325382389</v>
       </c>
       <c r="N13">
-        <v>0.9692459562014136</v>
+        <v>0.9918303562730494</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9370033918807953</v>
+        <v>0.9332838100880801</v>
       </c>
       <c r="D14">
-        <v>1.018050181981212</v>
+        <v>1.006053586573631</v>
       </c>
       <c r="E14">
-        <v>0.9528612900973932</v>
+        <v>0.9504002400164225</v>
       </c>
       <c r="F14">
-        <v>1.001283113563795</v>
+        <v>0.893518510110244</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042484964798722</v>
+        <v>1.041504960057254</v>
       </c>
       <c r="J14">
-        <v>0.9692936700498473</v>
+        <v>0.9657619451119196</v>
       </c>
       <c r="K14">
-        <v>1.032656075015912</v>
+        <v>1.020879057303193</v>
       </c>
       <c r="L14">
-        <v>0.9687487283157932</v>
+        <v>0.9663406315248364</v>
       </c>
       <c r="M14">
-        <v>1.016197809895203</v>
+        <v>0.9107928662969849</v>
       </c>
       <c r="N14">
-        <v>0.970670178240856</v>
+        <v>0.9920772962376159</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9381381940305615</v>
+        <v>0.9339594978170854</v>
       </c>
       <c r="D15">
-        <v>1.018704751323136</v>
+        <v>1.00653115496801</v>
       </c>
       <c r="E15">
-        <v>0.9537977804341186</v>
+        <v>0.9509352372330094</v>
       </c>
       <c r="F15">
-        <v>1.002115630447553</v>
+        <v>0.8946004490367293</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042817898628452</v>
+        <v>1.04170128505091</v>
       </c>
       <c r="J15">
-        <v>0.9701635535529523</v>
+        <v>0.966193711561523</v>
       </c>
       <c r="K15">
-        <v>1.033212320942228</v>
+        <v>1.021259696371353</v>
       </c>
       <c r="L15">
-        <v>0.9695698471639176</v>
+        <v>0.9667683417611846</v>
       </c>
       <c r="M15">
-        <v>1.016926052660902</v>
+        <v>0.9117422759821919</v>
       </c>
       <c r="N15">
-        <v>0.9715412970783125</v>
+        <v>0.9922286241107074</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9446203955775695</v>
+        <v>0.9378407724387507</v>
       </c>
       <c r="D16">
-        <v>1.022453105384728</v>
+        <v>1.009265409203061</v>
       </c>
       <c r="E16">
-        <v>0.9591526895210217</v>
+        <v>0.9540120283963394</v>
       </c>
       <c r="F16">
-        <v>1.006882096723702</v>
+        <v>0.9007957944123277</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044717207487699</v>
+        <v>1.042818143987246</v>
       </c>
       <c r="J16">
-        <v>0.975133122588239</v>
+        <v>0.9686722327538855</v>
       </c>
       <c r="K16">
-        <v>1.036392937013885</v>
+        <v>1.023433172621418</v>
       </c>
       <c r="L16">
-        <v>0.974261830701879</v>
+        <v>0.9692251118085194</v>
       </c>
       <c r="M16">
-        <v>1.021091878727257</v>
+        <v>0.9171784877944084</v>
       </c>
       <c r="N16">
-        <v>0.976517923471647</v>
+        <v>0.9930972651190643</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9485838063713603</v>
+        <v>0.9402317484861816</v>
       </c>
       <c r="D17">
-        <v>1.024752477729906</v>
+        <v>1.01094139622666</v>
       </c>
       <c r="E17">
-        <v>0.9624313958998677</v>
+        <v>0.9559105476525896</v>
       </c>
       <c r="F17">
-        <v>1.009805409496553</v>
+        <v>0.9045963630360887</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045876040526624</v>
+        <v>1.043496363820946</v>
       </c>
       <c r="J17">
-        <v>0.9781720288572704</v>
+        <v>0.970197664809425</v>
       </c>
       <c r="K17">
-        <v>1.038339992686732</v>
+        <v>1.024760264815615</v>
       </c>
       <c r="L17">
-        <v>0.9771318437783645</v>
+        <v>0.9707384608976295</v>
       </c>
       <c r="M17">
-        <v>1.023643671239015</v>
+        <v>0.9205130491138687</v>
       </c>
       <c r="N17">
-        <v>0.9795611453361476</v>
+        <v>0.993631817237818</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9508606200685997</v>
+        <v>0.9416112877841711</v>
       </c>
       <c r="D18">
-        <v>1.026075832372271</v>
+        <v>1.01190518914984</v>
       </c>
       <c r="E18">
-        <v>0.9643164180432369</v>
+        <v>0.9570070423621527</v>
       </c>
       <c r="F18">
-        <v>1.011487708577558</v>
+        <v>0.9067839005640491</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046540744827351</v>
+        <v>1.043884053311239</v>
       </c>
       <c r="J18">
-        <v>0.979917813864169</v>
+        <v>0.9710773036090241</v>
       </c>
       <c r="K18">
-        <v>1.039459147210265</v>
+        <v>1.025521539750436</v>
       </c>
       <c r="L18">
-        <v>0.9787808997727564</v>
+        <v>0.9716115863847541</v>
       </c>
       <c r="M18">
-        <v>1.025111052260373</v>
+        <v>0.9224322143961037</v>
       </c>
       <c r="N18">
-        <v>0.9813094095580005</v>
+        <v>0.9939400349889163</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9516312031082645</v>
+        <v>0.942079176676888</v>
       </c>
       <c r="D19">
-        <v>1.026524114916116</v>
+        <v>1.012231509405842</v>
       </c>
       <c r="E19">
-        <v>0.9649546531084521</v>
+        <v>0.9573791150827973</v>
       </c>
       <c r="F19">
-        <v>1.012057562878653</v>
+        <v>0.9075249712570824</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046765533510137</v>
+        <v>1.044014918495456</v>
       </c>
       <c r="J19">
-        <v>0.9805086752647512</v>
+        <v>0.9713755600990768</v>
       </c>
       <c r="K19">
-        <v>1.039838016765208</v>
+        <v>1.025778969665041</v>
       </c>
       <c r="L19">
-        <v>0.9793390726376074</v>
+        <v>0.9719077101529852</v>
       </c>
       <c r="M19">
-        <v>1.025607917964573</v>
+        <v>0.923082340769418</v>
       </c>
       <c r="N19">
-        <v>0.9819011100495441</v>
+        <v>0.9940445353616925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9481622314554794</v>
+        <v>0.9399767930007873</v>
       </c>
       <c r="D20">
-        <v>1.024507639729344</v>
+        <v>1.010763011282516</v>
       </c>
       <c r="E20">
-        <v>0.9620824881693371</v>
+        <v>0.9557079898553139</v>
       </c>
       <c r="F20">
-        <v>1.009494151262863</v>
+        <v>0.9041916596615612</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04575288055055</v>
+        <v>1.04342441819727</v>
       </c>
       <c r="J20">
-        <v>0.9778487826112906</v>
+        <v>0.9700350565044009</v>
       </c>
       <c r="K20">
-        <v>1.0381328188594</v>
+        <v>1.024619209928011</v>
       </c>
       <c r="L20">
-        <v>0.9768265315296066</v>
+        <v>0.9705770930920495</v>
       </c>
       <c r="M20">
-        <v>1.023372086833015</v>
+        <v>0.9201579830381097</v>
       </c>
       <c r="N20">
-        <v>0.9792374400434218</v>
+        <v>0.9935748379898327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9364587729934649</v>
+        <v>0.932959936233718</v>
       </c>
       <c r="D21">
-        <v>1.017736215960318</v>
+        <v>1.005824523177328</v>
       </c>
       <c r="E21">
-        <v>0.9524119486561263</v>
+        <v>0.950143869507753</v>
       </c>
       <c r="F21">
-        <v>1.000883775797222</v>
+        <v>0.8929995435326207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042325141913479</v>
+        <v>1.041410666287968</v>
       </c>
       <c r="J21">
-        <v>0.9688762062400663</v>
+        <v>0.9655549594400541</v>
       </c>
       <c r="K21">
-        <v>1.032389184908477</v>
+        <v>1.02069638205</v>
       </c>
       <c r="L21">
-        <v>0.9683546854663386</v>
+        <v>0.9661356184022898</v>
       </c>
       <c r="M21">
-        <v>1.015848424097435</v>
+        <v>0.9103374660523216</v>
       </c>
       <c r="N21">
-        <v>0.9702521215845813</v>
+        <v>0.9920047503033089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9287389423953057</v>
+        <v>0.9283977269170242</v>
       </c>
       <c r="D22">
-        <v>1.013298586301873</v>
+        <v>1.002588185266324</v>
       </c>
       <c r="E22">
-        <v>0.9460498998061476</v>
+        <v>0.9465371257653151</v>
       </c>
       <c r="F22">
-        <v>0.9952380224066074</v>
+        <v>0.8856631930077684</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040057361350192</v>
+        <v>1.040069952889099</v>
       </c>
       <c r="J22">
-        <v>0.9629599559473687</v>
+        <v>0.9626372899826152</v>
       </c>
       <c r="K22">
-        <v>1.028611120176448</v>
+        <v>1.018108543476333</v>
       </c>
       <c r="L22">
-        <v>0.9627716290204265</v>
+        <v>0.9632476826143532</v>
       </c>
       <c r="M22">
-        <v>1.010904408960538</v>
+        <v>0.9038996218186307</v>
       </c>
       <c r="N22">
-        <v>0.964327469537865</v>
+        <v>0.9909821383012312</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9328681098237738</v>
+        <v>0.9308312634639995</v>
       </c>
       <c r="D23">
-        <v>1.015669174573886</v>
+        <v>1.004316643407697</v>
       </c>
       <c r="E23">
-        <v>0.9494511272722548</v>
+        <v>0.9484599413373763</v>
       </c>
       <c r="F23">
-        <v>0.9982543513906675</v>
+        <v>0.8895826079053326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041270843805798</v>
+        <v>1.040787933939622</v>
       </c>
       <c r="J23">
-        <v>0.9661241314035384</v>
+        <v>0.9641940694669813</v>
       </c>
       <c r="K23">
-        <v>1.030630708778503</v>
+        <v>1.019492227845274</v>
       </c>
       <c r="L23">
-        <v>0.9657573079051662</v>
+        <v>0.9647881493154242</v>
       </c>
       <c r="M23">
-        <v>1.01354685405714</v>
+        <v>0.9073390238705025</v>
       </c>
       <c r="N23">
-        <v>0.9674961384861183</v>
+        <v>0.9915277712517893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9483528306219304</v>
+        <v>0.9400920428482041</v>
       </c>
       <c r="D24">
-        <v>1.024618326380758</v>
+        <v>1.010843658275206</v>
       </c>
       <c r="E24">
-        <v>0.9622402288394506</v>
+        <v>0.9557995505175246</v>
       </c>
       <c r="F24">
-        <v>1.009634865705268</v>
+        <v>0.9043746177757983</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045808565806152</v>
+        <v>1.043456951719778</v>
       </c>
       <c r="J24">
-        <v>0.9779949260141818</v>
+        <v>0.9701085633702363</v>
       </c>
       <c r="K24">
-        <v>1.038226482691041</v>
+        <v>1.024682986037231</v>
       </c>
       <c r="L24">
-        <v>0.9769645658432787</v>
+        <v>0.9706500377845866</v>
       </c>
       <c r="M24">
-        <v>1.023494868894205</v>
+        <v>0.9203185016103148</v>
       </c>
       <c r="N24">
-        <v>0.9793837909867079</v>
+        <v>0.9936005954812364</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.964964810128688</v>
+        <v>0.9502525922026219</v>
       </c>
       <c r="D25">
-        <v>1.034310432364275</v>
+        <v>1.017880093725813</v>
       </c>
       <c r="E25">
-        <v>0.9760181467734862</v>
+        <v>0.9638937688994601</v>
       </c>
       <c r="F25">
-        <v>1.021954974952779</v>
+        <v>0.9204038941932776</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050637899692881</v>
+        <v>1.046245438360872</v>
       </c>
       <c r="J25">
-        <v>0.9907316425229085</v>
+        <v>0.9765785177966975</v>
       </c>
       <c r="K25">
-        <v>1.046398487690483</v>
+        <v>1.030207043163232</v>
       </c>
       <c r="L25">
-        <v>0.9890005196851295</v>
+        <v>0.9770797006583634</v>
       </c>
       <c r="M25">
-        <v>1.034221766978491</v>
+        <v>0.9343777708368862</v>
       </c>
       <c r="N25">
-        <v>0.9921385950937989</v>
+        <v>0.9958668151910696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9579485478811424</v>
+        <v>1.004727430580851</v>
       </c>
       <c r="D2">
-        <v>1.023091368372433</v>
+        <v>1.025507051647289</v>
       </c>
       <c r="E2">
-        <v>0.9700542965998483</v>
+        <v>1.007762213487518</v>
       </c>
       <c r="F2">
-        <v>0.9324254259529805</v>
+        <v>1.002867825820396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04823588693434</v>
+        <v>1.028047310659273</v>
       </c>
       <c r="J2">
-        <v>0.9814641205734456</v>
+        <v>1.010014891386621</v>
       </c>
       <c r="K2">
-        <v>1.034238110779699</v>
+        <v>1.028332420894459</v>
       </c>
       <c r="L2">
-        <v>0.9819472117454191</v>
+        <v>1.010640516912302</v>
       </c>
       <c r="M2">
-        <v>0.9449139967932566</v>
+        <v>1.005761089072324</v>
       </c>
       <c r="N2">
-        <v>0.9975761866928806</v>
+        <v>1.007465362557762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9633269577642326</v>
+        <v>1.005822002272901</v>
       </c>
       <c r="D3">
-        <v>1.026656736711927</v>
+        <v>1.026019325364456</v>
       </c>
       <c r="E3">
-        <v>0.9743752803874034</v>
+        <v>1.008694518224989</v>
       </c>
       <c r="F3">
-        <v>0.9407736036627249</v>
+        <v>1.004617363073518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049552168686541</v>
+        <v>1.028114196249099</v>
       </c>
       <c r="J3">
-        <v>0.9848698693453306</v>
+        <v>1.010738946473879</v>
       </c>
       <c r="K3">
-        <v>1.036959532729952</v>
+        <v>1.02865281339994</v>
       </c>
       <c r="L3">
-        <v>0.9853468848820134</v>
+        <v>1.01137594559515</v>
       </c>
       <c r="M3">
-        <v>0.9522249147171994</v>
+        <v>1.007310333110168</v>
       </c>
       <c r="N3">
-        <v>0.9987662937553543</v>
+        <v>1.007712251451404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.966718024260288</v>
+        <v>1.006530092566826</v>
       </c>
       <c r="D4">
-        <v>1.028866762049402</v>
+        <v>1.026344013162027</v>
       </c>
       <c r="E4">
-        <v>0.9771064133042652</v>
+        <v>1.009297975763954</v>
       </c>
       <c r="F4">
-        <v>0.9460168870968086</v>
+        <v>1.005748917304874</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611163</v>
+        <v>1.028152502439901</v>
       </c>
       <c r="J4">
-        <v>0.9870131806027862</v>
+        <v>1.01120681070201</v>
       </c>
       <c r="K4">
-        <v>1.038628840114071</v>
+        <v>1.028852644648525</v>
       </c>
       <c r="L4">
-        <v>0.9874892292024849</v>
+        <v>1.011851397160795</v>
       </c>
       <c r="M4">
-        <v>0.9568136768748502</v>
+        <v>1.008311870664742</v>
       </c>
       <c r="N4">
-        <v>0.9995144411480156</v>
+        <v>1.007871580600961</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9681233544498589</v>
+        <v>1.006827735276856</v>
       </c>
       <c r="D5">
-        <v>1.029773185199953</v>
+        <v>1.026478881440165</v>
       </c>
       <c r="E5">
-        <v>0.9782398134791518</v>
+        <v>1.009551717083347</v>
       </c>
       <c r="F5">
-        <v>0.94818554991034</v>
+        <v>1.006224509550559</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050666288111991</v>
+        <v>1.028167412619882</v>
       </c>
       <c r="J5">
-        <v>0.9879004498249212</v>
+        <v>1.011403347421962</v>
       </c>
       <c r="K5">
-        <v>1.039309142812778</v>
+        <v>1.028934856412712</v>
       </c>
       <c r="L5">
-        <v>0.9883767614277499</v>
+        <v>1.012051177842443</v>
       </c>
       <c r="M5">
-        <v>0.958710846261091</v>
+        <v>1.008732703681971</v>
       </c>
       <c r="N5">
-        <v>0.9998239402806027</v>
+        <v>1.007938461346076</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9683581560840536</v>
+        <v>1.006877708613519</v>
       </c>
       <c r="D6">
-        <v>1.029924063371728</v>
+        <v>1.026501430639359</v>
       </c>
       <c r="E6">
-        <v>0.9784292711889748</v>
+        <v>1.00959432420678</v>
       </c>
       <c r="F6">
-        <v>0.9485476538046039</v>
+        <v>1.006304357228488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050719259225548</v>
+        <v>1.0281698460087</v>
       </c>
       <c r="J6">
-        <v>0.9880486372856183</v>
+        <v>1.011436337855459</v>
       </c>
       <c r="K6">
-        <v>1.039422122093371</v>
+        <v>1.028948554567337</v>
       </c>
       <c r="L6">
-        <v>0.9885250312108025</v>
+        <v>1.012084716123469</v>
       </c>
       <c r="M6">
-        <v>0.9590275715264019</v>
+        <v>1.008803351132689</v>
       </c>
       <c r="N6">
-        <v>0.9998756183614798</v>
+        <v>1.007949684992606</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9667368806688124</v>
+        <v>1.006534069831341</v>
       </c>
       <c r="D7">
-        <v>1.028878962103938</v>
+        <v>1.026345821692922</v>
       </c>
       <c r="E7">
-        <v>0.9771216149270425</v>
+        <v>1.009301366078558</v>
       </c>
       <c r="F7">
-        <v>0.9460460018697399</v>
+        <v>1.005755272624287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012134</v>
+        <v>1.028152706365405</v>
       </c>
       <c r="J7">
-        <v>0.987025089606449</v>
+        <v>1.01120943743596</v>
       </c>
       <c r="K7">
-        <v>1.03863801414487</v>
+        <v>1.028853750236068</v>
       </c>
       <c r="L7">
-        <v>0.987501139139946</v>
+        <v>1.011854067027955</v>
       </c>
       <c r="M7">
-        <v>0.9568391499295099</v>
+        <v>1.008317494683953</v>
       </c>
       <c r="N7">
-        <v>0.9995185961346695</v>
+        <v>1.007872474662037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9597853264300785</v>
+        <v>1.005097383039582</v>
       </c>
       <c r="D8">
-        <v>1.024316734034519</v>
+        <v>1.025681579129091</v>
       </c>
       <c r="E8">
-        <v>0.9715284891839455</v>
+        <v>1.008077250859506</v>
       </c>
       <c r="F8">
-        <v>0.9352810384625575</v>
+        <v>1.003459202297312</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04869285524892</v>
+        <v>1.02807094286734</v>
       </c>
       <c r="J8">
-        <v>0.9826280558903956</v>
+        <v>1.010259724350782</v>
       </c>
       <c r="K8">
-        <v>1.03517709359159</v>
+        <v>1.028442245416833</v>
       </c>
       <c r="L8">
-        <v>0.9831084545181819</v>
+        <v>1.010889146272544</v>
       </c>
       <c r="M8">
-        <v>0.9474154113007931</v>
+        <v>1.006284860424486</v>
       </c>
       <c r="N8">
-        <v>0.9979830733841405</v>
+        <v>1.00754888794167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9468007869254523</v>
+        <v>1.002564339795591</v>
       </c>
       <c r="D9">
-        <v>1.015507248178863</v>
+        <v>1.024459342914767</v>
       </c>
       <c r="E9">
-        <v>0.9611390090764109</v>
+        <v>1.005921629741186</v>
       </c>
       <c r="F9">
-        <v>0.9149797869050242</v>
+        <v>0.9994088644037524</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045316807020323</v>
+        <v>1.027888906352644</v>
       </c>
       <c r="J9">
-        <v>0.9743828972372879</v>
+        <v>1.008581170752679</v>
       </c>
       <c r="K9">
-        <v>1.028353643349235</v>
+        <v>1.027660033183786</v>
       </c>
       <c r="L9">
-        <v>0.974895700299456</v>
+        <v>1.009185553564632</v>
       </c>
       <c r="M9">
-        <v>0.9296213473758322</v>
+        <v>1.002695617146474</v>
       </c>
       <c r="N9">
-        <v>0.9950980039690246</v>
+        <v>1.00697541805312</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9375684830163677</v>
+        <v>1.000874535888566</v>
       </c>
       <c r="D10">
-        <v>1.009074118800383</v>
+        <v>1.023610008354521</v>
       </c>
       <c r="E10">
-        <v>0.9537959726989974</v>
+        <v>1.004485421829613</v>
       </c>
       <c r="F10">
-        <v>0.9003622216808118</v>
+        <v>0.9967050907846262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042740418255069</v>
+        <v>1.027742192411911</v>
       </c>
       <c r="J10">
-        <v>0.9684984444397379</v>
+        <v>1.007458639509106</v>
       </c>
       <c r="K10">
-        <v>1.023281447481244</v>
+        <v>1.027100466945094</v>
       </c>
       <c r="L10">
-        <v>0.9690527632806326</v>
+        <v>1.008047530887223</v>
       </c>
       <c r="M10">
-        <v>0.9167980599729704</v>
+        <v>1.000297222101511</v>
       </c>
       <c r="N10">
-        <v>0.9930363614252332</v>
+        <v>1.006590881253872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9334129918157617</v>
+        <v>1.000142534010965</v>
       </c>
       <c r="D11">
-        <v>1.006144924351871</v>
+        <v>1.02323410637176</v>
       </c>
       <c r="E11">
-        <v>0.9505025091571975</v>
+        <v>1.003863715011103</v>
       </c>
       <c r="F11">
-        <v>0.893725440921452</v>
+        <v>0.995533349279506</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041542536238143</v>
+        <v>1.027672681232815</v>
       </c>
       <c r="J11">
-        <v>0.9658444990194033</v>
+        <v>1.006971717307854</v>
       </c>
       <c r="K11">
-        <v>1.02095187941545</v>
+        <v>1.026849189472056</v>
       </c>
       <c r="L11">
-        <v>0.9664224037695216</v>
+        <v>1.007554189785336</v>
       </c>
       <c r="M11">
-        <v>0.9109744503736821</v>
+        <v>0.999257251006217</v>
       </c>
       <c r="N11">
-        <v>0.9921062302914592</v>
+        <v>1.006423839134035</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9318436687476382</v>
+        <v>0.99987058688519</v>
       </c>
       <c r="D12">
-        <v>1.005034294761868</v>
+        <v>1.023093261465912</v>
       </c>
       <c r="E12">
-        <v>0.9492605915504059</v>
+        <v>1.003632810757945</v>
       </c>
       <c r="F12">
-        <v>0.8912090268062499</v>
+        <v>0.9950979518761309</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041084745136767</v>
+        <v>1.027645965106361</v>
       </c>
       <c r="J12">
-        <v>0.9648414153495264</v>
+        <v>1.006790721502815</v>
       </c>
       <c r="K12">
-        <v>1.020065677037083</v>
+        <v>1.026754508480939</v>
       </c>
       <c r="L12">
-        <v>0.9654290134301796</v>
+        <v>1.007370853485298</v>
       </c>
       <c r="M12">
-        <v>0.9087662510348528</v>
+        <v>0.9988707312407346</v>
       </c>
       <c r="N12">
-        <v>0.9917546603309014</v>
+        <v>1.006361711295728</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9321814970377231</v>
+        <v>0.9999289227360615</v>
       </c>
       <c r="D13">
-        <v>1.005273568579274</v>
+        <v>1.02312352824074</v>
       </c>
       <c r="E13">
-        <v>0.9495278534437021</v>
+        <v>1.00368233938652</v>
       </c>
       <c r="F13">
-        <v>0.8917512133647502</v>
+        <v>0.9951913535466643</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041183532369408</v>
+        <v>1.027651736342748</v>
       </c>
       <c r="J13">
-        <v>0.9650573866561774</v>
+        <v>1.006829551690842</v>
       </c>
       <c r="K13">
-        <v>1.020256731067154</v>
+        <v>1.02677487869296</v>
       </c>
       <c r="L13">
-        <v>0.9656428616942665</v>
+        <v>1.007410183731069</v>
       </c>
       <c r="M13">
-        <v>0.9092420325382389</v>
+        <v>0.9989536515352102</v>
       </c>
       <c r="N13">
-        <v>0.9918303562730494</v>
+        <v>1.006375041600458</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9332838100880801</v>
+        <v>1.000120055795136</v>
       </c>
       <c r="D14">
-        <v>1.006053586573631</v>
+        <v>1.023222488916466</v>
       </c>
       <c r="E14">
-        <v>0.9504002400164225</v>
+        <v>1.003844627887068</v>
       </c>
       <c r="F14">
-        <v>0.893518510110244</v>
+        <v>0.9954973625354055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041504960057254</v>
+        <v>1.027670491146611</v>
       </c>
       <c r="J14">
-        <v>0.9657619451119196</v>
+        <v>1.006956758827764</v>
       </c>
       <c r="K14">
-        <v>1.020879057303193</v>
+        <v>1.026841390534216</v>
       </c>
       <c r="L14">
-        <v>0.9663406315248364</v>
+        <v>1.007539036944252</v>
       </c>
       <c r="M14">
-        <v>0.9107928662969849</v>
+        <v>0.9992253058768764</v>
       </c>
       <c r="N14">
-        <v>0.9920772962376159</v>
+        <v>1.006418705282296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9339594978170854</v>
+        <v>1.000237812589679</v>
       </c>
       <c r="D15">
-        <v>1.00653115496801</v>
+        <v>1.023283300548361</v>
       </c>
       <c r="E15">
-        <v>0.9509352372330094</v>
+        <v>1.003944622492043</v>
       </c>
       <c r="F15">
-        <v>0.8946004490367293</v>
+        <v>0.9956858831607941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04170128505091</v>
+        <v>1.027681927861248</v>
       </c>
       <c r="J15">
-        <v>0.966193711561523</v>
+        <v>1.007035117889274</v>
       </c>
       <c r="K15">
-        <v>1.021259696371353</v>
+        <v>1.026882192518695</v>
       </c>
       <c r="L15">
-        <v>0.9667683417611846</v>
+        <v>1.007618416018253</v>
       </c>
       <c r="M15">
-        <v>0.9117422759821919</v>
+        <v>0.9993926505345242</v>
       </c>
       <c r="N15">
-        <v>0.9922286241107074</v>
+        <v>1.006445597173323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9378407724387507</v>
+        <v>1.000923109737314</v>
       </c>
       <c r="D16">
-        <v>1.009265409203061</v>
+        <v>1.023634784689578</v>
       </c>
       <c r="E16">
-        <v>0.9540120283963394</v>
+        <v>1.004526686116763</v>
       </c>
       <c r="F16">
-        <v>0.9007957944123277</v>
+        <v>0.9967828335567679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042818143987246</v>
+        <v>1.027746679784026</v>
       </c>
       <c r="J16">
-        <v>0.9686722327538855</v>
+        <v>1.007490936651406</v>
       </c>
       <c r="K16">
-        <v>1.023433172621418</v>
+        <v>1.02711695452225</v>
       </c>
       <c r="L16">
-        <v>0.9692251118085194</v>
+        <v>1.008080260149639</v>
       </c>
       <c r="M16">
-        <v>0.9171784877944084</v>
+        <v>1.000366210124534</v>
       </c>
       <c r="N16">
-        <v>0.9930972651190643</v>
+        <v>1.006601955966833</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9402317484861816</v>
+        <v>1.001352894509748</v>
       </c>
       <c r="D17">
-        <v>1.01094139622666</v>
+        <v>1.023853086440131</v>
       </c>
       <c r="E17">
-        <v>0.9559105476525896</v>
+        <v>1.00489184635577</v>
       </c>
       <c r="F17">
-        <v>0.9045963630360887</v>
+        <v>0.997470648322167</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043496363820946</v>
+        <v>1.027785696793537</v>
       </c>
       <c r="J17">
-        <v>0.970197664809425</v>
+        <v>1.007776628254542</v>
       </c>
       <c r="K17">
-        <v>1.024760264815615</v>
+        <v>1.027261812832631</v>
       </c>
       <c r="L17">
-        <v>0.9707384608976295</v>
+        <v>1.00836980892789</v>
       </c>
       <c r="M17">
-        <v>0.9205130491138687</v>
+        <v>1.000976502807035</v>
       </c>
       <c r="N17">
-        <v>0.993631817237818</v>
+        <v>1.006699892041016</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9416112877841711</v>
+        <v>1.00160355141928</v>
       </c>
       <c r="D18">
-        <v>1.01190518914984</v>
+        <v>1.02397963304905</v>
       </c>
       <c r="E18">
-        <v>0.9570070423621527</v>
+        <v>1.005104855702431</v>
       </c>
       <c r="F18">
-        <v>0.9067839005640491</v>
+        <v>0.9978717443451044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043884053311239</v>
+        <v>1.027807877329898</v>
       </c>
       <c r="J18">
-        <v>0.9710773036090241</v>
+        <v>1.007943184624868</v>
       </c>
       <c r="K18">
-        <v>1.025521539750436</v>
+        <v>1.027345439387844</v>
       </c>
       <c r="L18">
-        <v>0.9716115863847541</v>
+        <v>1.008538642982987</v>
       </c>
       <c r="M18">
-        <v>0.9224322143961037</v>
+        <v>1.001332336979295</v>
       </c>
       <c r="N18">
-        <v>0.9939400349889163</v>
+        <v>1.006756964900417</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.942079176676888</v>
+        <v>1.001689014075675</v>
       </c>
       <c r="D19">
-        <v>1.012231509405842</v>
+        <v>1.024022648879114</v>
       </c>
       <c r="E19">
-        <v>0.9573791150827973</v>
+        <v>1.005177489416966</v>
       </c>
       <c r="F19">
-        <v>0.9075249712570824</v>
+        <v>0.9980084920162302</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044014918495456</v>
+        <v>1.027815342305294</v>
       </c>
       <c r="J19">
-        <v>0.9713755600990768</v>
+        <v>1.007999962080195</v>
       </c>
       <c r="K19">
-        <v>1.025778969665041</v>
+        <v>1.027373806722037</v>
       </c>
       <c r="L19">
-        <v>0.9719077101529852</v>
+        <v>1.008596201784786</v>
       </c>
       <c r="M19">
-        <v>0.923082340769418</v>
+        <v>1.001453643932613</v>
       </c>
       <c r="N19">
-        <v>0.9940445353616925</v>
+        <v>1.006776416535688</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9399767930007873</v>
+        <v>1.001306785723031</v>
       </c>
       <c r="D20">
-        <v>1.010763011282516</v>
+        <v>1.023829745907683</v>
       </c>
       <c r="E20">
-        <v>0.9557079898553139</v>
+        <v>1.004852666315862</v>
       </c>
       <c r="F20">
-        <v>0.9041916596615612</v>
+        <v>0.9973968621890754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04342441819727</v>
+        <v>1.027781570346936</v>
       </c>
       <c r="J20">
-        <v>0.9700350565044009</v>
+        <v>1.007745984820907</v>
       </c>
       <c r="K20">
-        <v>1.024619209928011</v>
+        <v>1.027246360540018</v>
       </c>
       <c r="L20">
-        <v>0.9705770930920495</v>
+        <v>1.008338748771612</v>
       </c>
       <c r="M20">
-        <v>0.9201579830381097</v>
+        <v>1.000911038655298</v>
       </c>
       <c r="N20">
-        <v>0.9935748379898327</v>
+        <v>1.006689389768212</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.932959936233718</v>
+        <v>1.000063773251871</v>
       </c>
       <c r="D21">
-        <v>1.005824523177328</v>
+        <v>1.023193381061208</v>
       </c>
       <c r="E21">
-        <v>0.950143869507753</v>
+        <v>1.003796837283646</v>
       </c>
       <c r="F21">
-        <v>0.8929995435326207</v>
+        <v>0.9954072550388525</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041410666287968</v>
+        <v>1.027664993056495</v>
       </c>
       <c r="J21">
-        <v>0.9655549594400541</v>
+        <v>1.006919303136536</v>
       </c>
       <c r="K21">
-        <v>1.02069638205</v>
+        <v>1.026821841561943</v>
       </c>
       <c r="L21">
-        <v>0.9661356184022898</v>
+        <v>1.007501095313476</v>
       </c>
       <c r="M21">
-        <v>0.9103374660523216</v>
+        <v>0.9991453168265775</v>
       </c>
       <c r="N21">
-        <v>0.9920047503033089</v>
+        <v>1.006405849655614</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9283977269170242</v>
+        <v>0.9992819567113377</v>
       </c>
       <c r="D22">
-        <v>1.002588185266324</v>
+        <v>1.022786227006253</v>
       </c>
       <c r="E22">
-        <v>0.9465371257653151</v>
+        <v>1.003133141372291</v>
       </c>
       <c r="F22">
-        <v>0.8856631930077684</v>
+        <v>0.9941553759467042</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040069952889099</v>
+        <v>1.027586509990163</v>
       </c>
       <c r="J22">
-        <v>0.9626372899826152</v>
+        <v>1.006398775255053</v>
       </c>
       <c r="K22">
-        <v>1.018108543476333</v>
+        <v>1.026547147649343</v>
       </c>
       <c r="L22">
-        <v>0.9632476826143532</v>
+        <v>1.006973922460185</v>
       </c>
       <c r="M22">
-        <v>0.9038996218186307</v>
+        <v>0.9980338120025594</v>
       </c>
       <c r="N22">
-        <v>0.9909821383012312</v>
+        <v>1.006227108057501</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9308312634639995</v>
+        <v>0.999696440536912</v>
       </c>
       <c r="D23">
-        <v>1.004316643407697</v>
+        <v>1.023002733729557</v>
       </c>
       <c r="E23">
-        <v>0.9484599413373763</v>
+        <v>1.003484965927849</v>
       </c>
       <c r="F23">
-        <v>0.8895826079053326</v>
+        <v>0.994819113223859</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040787933939622</v>
+        <v>1.027628606217047</v>
       </c>
       <c r="J23">
-        <v>0.9641940694669813</v>
+        <v>1.006674789739233</v>
       </c>
       <c r="K23">
-        <v>1.019492227845274</v>
+        <v>1.026693504457306</v>
       </c>
       <c r="L23">
-        <v>0.9647881493154242</v>
+        <v>1.00725343543061</v>
       </c>
       <c r="M23">
-        <v>0.9073390238705025</v>
+        <v>0.9986231708368029</v>
       </c>
       <c r="N23">
-        <v>0.9915277712517893</v>
+        <v>1.006321906973259</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9400920428482041</v>
+        <v>1.001327620389373</v>
       </c>
       <c r="D24">
-        <v>1.010843658275206</v>
+        <v>1.023840294915894</v>
       </c>
       <c r="E24">
-        <v>0.9557995505175246</v>
+        <v>1.004870370035164</v>
       </c>
       <c r="F24">
-        <v>0.9043746177757983</v>
+        <v>0.9974302032580507</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043456951719778</v>
+        <v>1.027783436694908</v>
       </c>
       <c r="J24">
-        <v>0.9701085633702363</v>
+        <v>1.007759831525004</v>
       </c>
       <c r="K24">
-        <v>1.024682986037231</v>
+        <v>1.027253345444725</v>
       </c>
       <c r="L24">
-        <v>0.9706500377845866</v>
+        <v>1.008352783688695</v>
       </c>
       <c r="M24">
-        <v>0.9203185016103148</v>
+        <v>1.000940619516847</v>
       </c>
       <c r="N24">
-        <v>0.9936005954812364</v>
+        <v>1.006694135452648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9502525922026219</v>
+        <v>1.003219376118636</v>
       </c>
       <c r="D25">
-        <v>1.017880093725813</v>
+        <v>1.024781422877932</v>
       </c>
       <c r="E25">
-        <v>0.9638937688994601</v>
+        <v>1.006478749260444</v>
       </c>
       <c r="F25">
-        <v>0.9204038941932776</v>
+        <v>1.00045655425395</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046245438360872</v>
+        <v>1.027940447854658</v>
       </c>
       <c r="J25">
-        <v>0.9765785177966975</v>
+        <v>1.009015725207216</v>
       </c>
       <c r="K25">
-        <v>1.030207043163232</v>
+        <v>1.027868987877461</v>
       </c>
       <c r="L25">
-        <v>0.9770797006583634</v>
+        <v>1.009626370872034</v>
       </c>
       <c r="M25">
-        <v>0.9343777708368862</v>
+        <v>1.003624464200099</v>
       </c>
       <c r="N25">
-        <v>0.9958668151910696</v>
+        <v>1.007124063766357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004727430580851</v>
+        <v>0.9579485478811427</v>
       </c>
       <c r="D2">
-        <v>1.025507051647289</v>
+        <v>1.023091368372433</v>
       </c>
       <c r="E2">
-        <v>1.007762213487518</v>
+        <v>0.9700542965998484</v>
       </c>
       <c r="F2">
-        <v>1.002867825820396</v>
+        <v>0.9324254259529806</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028047310659273</v>
+        <v>1.04823588693434</v>
       </c>
       <c r="J2">
-        <v>1.010014891386621</v>
+        <v>0.9814641205734458</v>
       </c>
       <c r="K2">
-        <v>1.028332420894459</v>
+        <v>1.034238110779699</v>
       </c>
       <c r="L2">
-        <v>1.010640516912302</v>
+        <v>0.9819472117454193</v>
       </c>
       <c r="M2">
-        <v>1.005761089072324</v>
+        <v>0.9449139967932568</v>
       </c>
       <c r="N2">
-        <v>1.007465362557762</v>
+        <v>0.9975761866928806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005822002272901</v>
+        <v>0.9633269577642327</v>
       </c>
       <c r="D3">
-        <v>1.026019325364456</v>
+        <v>1.026656736711927</v>
       </c>
       <c r="E3">
-        <v>1.008694518224989</v>
+        <v>0.9743752803874035</v>
       </c>
       <c r="F3">
-        <v>1.004617363073518</v>
+        <v>0.9407736036627249</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028114196249099</v>
+        <v>1.04955216868654</v>
       </c>
       <c r="J3">
-        <v>1.010738946473879</v>
+        <v>0.9848698693453305</v>
       </c>
       <c r="K3">
-        <v>1.02865281339994</v>
+        <v>1.036959532729952</v>
       </c>
       <c r="L3">
-        <v>1.01137594559515</v>
+        <v>0.9853468848820135</v>
       </c>
       <c r="M3">
-        <v>1.007310333110168</v>
+        <v>0.9522249147171993</v>
       </c>
       <c r="N3">
-        <v>1.007712251451404</v>
+        <v>0.9987662937553543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006530092566826</v>
+        <v>0.9667180242602881</v>
       </c>
       <c r="D4">
-        <v>1.026344013162027</v>
+        <v>1.028866762049402</v>
       </c>
       <c r="E4">
-        <v>1.009297975763954</v>
+        <v>0.9771064133042652</v>
       </c>
       <c r="F4">
-        <v>1.005748917304874</v>
+        <v>0.9460168870968084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028152502439901</v>
+        <v>1.050346101611162</v>
       </c>
       <c r="J4">
-        <v>1.01120681070201</v>
+        <v>0.9870131806027863</v>
       </c>
       <c r="K4">
-        <v>1.028852644648525</v>
+        <v>1.038628840114071</v>
       </c>
       <c r="L4">
-        <v>1.011851397160795</v>
+        <v>0.9874892292024851</v>
       </c>
       <c r="M4">
-        <v>1.008311870664742</v>
+        <v>0.9568136768748501</v>
       </c>
       <c r="N4">
-        <v>1.007871580600961</v>
+        <v>0.9995144411480156</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006827735276856</v>
+        <v>0.9681233544498591</v>
       </c>
       <c r="D5">
-        <v>1.026478881440165</v>
+        <v>1.029773185199953</v>
       </c>
       <c r="E5">
-        <v>1.009551717083347</v>
+        <v>0.9782398134791523</v>
       </c>
       <c r="F5">
-        <v>1.006224509550559</v>
+        <v>0.9481855499103404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028167412619882</v>
+        <v>1.05066628811199</v>
       </c>
       <c r="J5">
-        <v>1.011403347421962</v>
+        <v>0.9879004498249215</v>
       </c>
       <c r="K5">
-        <v>1.028934856412712</v>
+        <v>1.039309142812778</v>
       </c>
       <c r="L5">
-        <v>1.012051177842443</v>
+        <v>0.9883767614277503</v>
       </c>
       <c r="M5">
-        <v>1.008732703681971</v>
+        <v>0.9587108462610917</v>
       </c>
       <c r="N5">
-        <v>1.007938461346076</v>
+        <v>0.999823940280603</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006877708613519</v>
+        <v>0.9683581560840535</v>
       </c>
       <c r="D6">
-        <v>1.026501430639359</v>
+        <v>1.029924063371728</v>
       </c>
       <c r="E6">
-        <v>1.00959432420678</v>
+        <v>0.9784292711889745</v>
       </c>
       <c r="F6">
-        <v>1.006304357228488</v>
+        <v>0.9485476538046037</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0281698460087</v>
+        <v>1.050719259225547</v>
       </c>
       <c r="J6">
-        <v>1.011436337855459</v>
+        <v>0.9880486372856182</v>
       </c>
       <c r="K6">
-        <v>1.028948554567337</v>
+        <v>1.039422122093371</v>
       </c>
       <c r="L6">
-        <v>1.012084716123469</v>
+        <v>0.9885250312108023</v>
       </c>
       <c r="M6">
-        <v>1.008803351132689</v>
+        <v>0.9590275715264018</v>
       </c>
       <c r="N6">
-        <v>1.007949684992606</v>
+        <v>0.9998756183614799</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006534069831341</v>
+        <v>0.9667368806688124</v>
       </c>
       <c r="D7">
-        <v>1.026345821692922</v>
+        <v>1.028878962103938</v>
       </c>
       <c r="E7">
-        <v>1.009301366078558</v>
+        <v>0.9771216149270426</v>
       </c>
       <c r="F7">
-        <v>1.005755272624287</v>
+        <v>0.9460460018697394</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028152706365405</v>
+        <v>1.050350433012133</v>
       </c>
       <c r="J7">
-        <v>1.01120943743596</v>
+        <v>0.987025089606449</v>
       </c>
       <c r="K7">
-        <v>1.028853750236068</v>
+        <v>1.03863801414487</v>
       </c>
       <c r="L7">
-        <v>1.011854067027955</v>
+        <v>0.987501139139946</v>
       </c>
       <c r="M7">
-        <v>1.008317494683953</v>
+        <v>0.9568391499295096</v>
       </c>
       <c r="N7">
-        <v>1.007872474662037</v>
+        <v>0.9995185961346696</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005097383039582</v>
+        <v>0.9597853264300786</v>
       </c>
       <c r="D8">
-        <v>1.025681579129091</v>
+        <v>1.024316734034519</v>
       </c>
       <c r="E8">
-        <v>1.008077250859506</v>
+        <v>0.9715284891839456</v>
       </c>
       <c r="F8">
-        <v>1.003459202297312</v>
+        <v>0.9352810384625577</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02807094286734</v>
+        <v>1.04869285524892</v>
       </c>
       <c r="J8">
-        <v>1.010259724350782</v>
+        <v>0.9826280558903957</v>
       </c>
       <c r="K8">
-        <v>1.028442245416833</v>
+        <v>1.03517709359159</v>
       </c>
       <c r="L8">
-        <v>1.010889146272544</v>
+        <v>0.983108454518182</v>
       </c>
       <c r="M8">
-        <v>1.006284860424486</v>
+        <v>0.9474154113007932</v>
       </c>
       <c r="N8">
-        <v>1.00754888794167</v>
+        <v>0.9979830733841404</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002564339795591</v>
+        <v>0.946800786925452</v>
       </c>
       <c r="D9">
-        <v>1.024459342914767</v>
+        <v>1.015507248178864</v>
       </c>
       <c r="E9">
-        <v>1.005921629741186</v>
+        <v>0.9611390090764103</v>
       </c>
       <c r="F9">
-        <v>0.9994088644037524</v>
+        <v>0.9149797869050237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027888906352644</v>
+        <v>1.045316807020323</v>
       </c>
       <c r="J9">
-        <v>1.008581170752679</v>
+        <v>0.9743828972372874</v>
       </c>
       <c r="K9">
-        <v>1.027660033183786</v>
+        <v>1.028353643349236</v>
       </c>
       <c r="L9">
-        <v>1.009185553564632</v>
+        <v>0.9748957002994553</v>
       </c>
       <c r="M9">
-        <v>1.002695617146474</v>
+        <v>0.9296213473758316</v>
       </c>
       <c r="N9">
-        <v>1.00697541805312</v>
+        <v>0.9950980039690245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000874535888566</v>
+        <v>0.937568483016368</v>
       </c>
       <c r="D10">
-        <v>1.023610008354521</v>
+        <v>1.009074118800384</v>
       </c>
       <c r="E10">
-        <v>1.004485421829613</v>
+        <v>0.9537959726989973</v>
       </c>
       <c r="F10">
-        <v>0.9967050907846262</v>
+        <v>0.9003622216808123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027742192411911</v>
+        <v>1.042740418255069</v>
       </c>
       <c r="J10">
-        <v>1.007458639509106</v>
+        <v>0.9684984444397381</v>
       </c>
       <c r="K10">
-        <v>1.027100466945094</v>
+        <v>1.023281447481244</v>
       </c>
       <c r="L10">
-        <v>1.008047530887223</v>
+        <v>0.9690527632806326</v>
       </c>
       <c r="M10">
-        <v>1.000297222101511</v>
+        <v>0.9167980599729705</v>
       </c>
       <c r="N10">
-        <v>1.006590881253872</v>
+        <v>0.9930363614252332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000142534010965</v>
+        <v>0.9334129918157615</v>
       </c>
       <c r="D11">
-        <v>1.02323410637176</v>
+        <v>1.006144924351871</v>
       </c>
       <c r="E11">
-        <v>1.003863715011103</v>
+        <v>0.9505025091571975</v>
       </c>
       <c r="F11">
-        <v>0.995533349279506</v>
+        <v>0.893725440921452</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027672681232815</v>
+        <v>1.041542536238143</v>
       </c>
       <c r="J11">
-        <v>1.006971717307854</v>
+        <v>0.9658444990194034</v>
       </c>
       <c r="K11">
-        <v>1.026849189472056</v>
+        <v>1.02095187941545</v>
       </c>
       <c r="L11">
-        <v>1.007554189785336</v>
+        <v>0.9664224037695215</v>
       </c>
       <c r="M11">
-        <v>0.999257251006217</v>
+        <v>0.9109744503736822</v>
       </c>
       <c r="N11">
-        <v>1.006423839134035</v>
+        <v>0.9921062302914593</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.99987058688519</v>
+        <v>0.9318436687476379</v>
       </c>
       <c r="D12">
-        <v>1.023093261465912</v>
+        <v>1.005034294761868</v>
       </c>
       <c r="E12">
-        <v>1.003632810757945</v>
+        <v>0.9492605915504053</v>
       </c>
       <c r="F12">
-        <v>0.9950979518761309</v>
+        <v>0.8912090268062498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027645965106361</v>
+        <v>1.041084745136768</v>
       </c>
       <c r="J12">
-        <v>1.006790721502815</v>
+        <v>0.9648414153495261</v>
       </c>
       <c r="K12">
-        <v>1.026754508480939</v>
+        <v>1.020065677037083</v>
       </c>
       <c r="L12">
-        <v>1.007370853485298</v>
+        <v>0.9654290134301791</v>
       </c>
       <c r="M12">
-        <v>0.9988707312407346</v>
+        <v>0.9087662510348526</v>
       </c>
       <c r="N12">
-        <v>1.006361711295728</v>
+        <v>0.9917546603309013</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999289227360615</v>
+        <v>0.9321814970377228</v>
       </c>
       <c r="D13">
-        <v>1.02312352824074</v>
+        <v>1.005273568579274</v>
       </c>
       <c r="E13">
-        <v>1.00368233938652</v>
+        <v>0.9495278534437012</v>
       </c>
       <c r="F13">
-        <v>0.9951913535466643</v>
+        <v>0.8917512133647498</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027651736342748</v>
+        <v>1.041183532369408</v>
       </c>
       <c r="J13">
-        <v>1.006829551690842</v>
+        <v>0.9650573866561769</v>
       </c>
       <c r="K13">
-        <v>1.02677487869296</v>
+        <v>1.020256731067155</v>
       </c>
       <c r="L13">
-        <v>1.007410183731069</v>
+        <v>0.9656428616942656</v>
       </c>
       <c r="M13">
-        <v>0.9989536515352102</v>
+        <v>0.9092420325382387</v>
       </c>
       <c r="N13">
-        <v>1.006375041600458</v>
+        <v>0.9918303562730492</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000120055795136</v>
+        <v>0.9332838100880801</v>
       </c>
       <c r="D14">
-        <v>1.023222488916466</v>
+        <v>1.006053586573631</v>
       </c>
       <c r="E14">
-        <v>1.003844627887068</v>
+        <v>0.9504002400164222</v>
       </c>
       <c r="F14">
-        <v>0.9954973625354055</v>
+        <v>0.8935185101102435</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027670491146611</v>
+        <v>1.041504960057253</v>
       </c>
       <c r="J14">
-        <v>1.006956758827764</v>
+        <v>0.9657619451119195</v>
       </c>
       <c r="K14">
-        <v>1.026841390534216</v>
+        <v>1.020879057303193</v>
       </c>
       <c r="L14">
-        <v>1.007539036944252</v>
+        <v>0.9663406315248364</v>
       </c>
       <c r="M14">
-        <v>0.9992253058768764</v>
+        <v>0.9107928662969845</v>
       </c>
       <c r="N14">
-        <v>1.006418705282296</v>
+        <v>0.9920772962376159</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000237812589679</v>
+        <v>0.9339594978170854</v>
       </c>
       <c r="D15">
-        <v>1.023283300548361</v>
+        <v>1.00653115496801</v>
       </c>
       <c r="E15">
-        <v>1.003944622492043</v>
+        <v>0.9509352372330097</v>
       </c>
       <c r="F15">
-        <v>0.9956858831607941</v>
+        <v>0.8946004490367299</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027681927861248</v>
+        <v>1.04170128505091</v>
       </c>
       <c r="J15">
-        <v>1.007035117889274</v>
+        <v>0.9661937115615231</v>
       </c>
       <c r="K15">
-        <v>1.026882192518695</v>
+        <v>1.021259696371353</v>
       </c>
       <c r="L15">
-        <v>1.007618416018253</v>
+        <v>0.9667683417611845</v>
       </c>
       <c r="M15">
-        <v>0.9993926505345242</v>
+        <v>0.911742275982192</v>
       </c>
       <c r="N15">
-        <v>1.006445597173323</v>
+        <v>0.9922286241107073</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000923109737314</v>
+        <v>0.937840772438751</v>
       </c>
       <c r="D16">
-        <v>1.023634784689578</v>
+        <v>1.009265409203062</v>
       </c>
       <c r="E16">
-        <v>1.004526686116763</v>
+        <v>0.9540120283963391</v>
       </c>
       <c r="F16">
-        <v>0.9967828335567679</v>
+        <v>0.9007957944123274</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027746679784026</v>
+        <v>1.042818143987246</v>
       </c>
       <c r="J16">
-        <v>1.007490936651406</v>
+        <v>0.9686722327538856</v>
       </c>
       <c r="K16">
-        <v>1.02711695452225</v>
+        <v>1.023433172621418</v>
       </c>
       <c r="L16">
-        <v>1.008080260149639</v>
+        <v>0.9692251118085194</v>
       </c>
       <c r="M16">
-        <v>1.000366210124534</v>
+        <v>0.9171784877944081</v>
       </c>
       <c r="N16">
-        <v>1.006601955966833</v>
+        <v>0.9930972651190644</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001352894509748</v>
+        <v>0.9402317484861817</v>
       </c>
       <c r="D17">
-        <v>1.023853086440131</v>
+        <v>1.01094139622666</v>
       </c>
       <c r="E17">
-        <v>1.00489184635577</v>
+        <v>0.9559105476525894</v>
       </c>
       <c r="F17">
-        <v>0.997470648322167</v>
+        <v>0.9045963630360891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027785696793537</v>
+        <v>1.043496363820946</v>
       </c>
       <c r="J17">
-        <v>1.007776628254542</v>
+        <v>0.9701976648094255</v>
       </c>
       <c r="K17">
-        <v>1.027261812832631</v>
+        <v>1.024760264815615</v>
       </c>
       <c r="L17">
-        <v>1.00836980892789</v>
+        <v>0.9707384608976295</v>
       </c>
       <c r="M17">
-        <v>1.000976502807035</v>
+        <v>0.9205130491138692</v>
       </c>
       <c r="N17">
-        <v>1.006699892041016</v>
+        <v>0.9936318172378182</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00160355141928</v>
+        <v>0.9416112877841714</v>
       </c>
       <c r="D18">
-        <v>1.02397963304905</v>
+        <v>1.01190518914984</v>
       </c>
       <c r="E18">
-        <v>1.005104855702431</v>
+        <v>0.9570070423621526</v>
       </c>
       <c r="F18">
-        <v>0.9978717443451044</v>
+        <v>0.9067839005640493</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027807877329898</v>
+        <v>1.043884053311239</v>
       </c>
       <c r="J18">
-        <v>1.007943184624868</v>
+        <v>0.9710773036090241</v>
       </c>
       <c r="K18">
-        <v>1.027345439387844</v>
+        <v>1.025521539750436</v>
       </c>
       <c r="L18">
-        <v>1.008538642982987</v>
+        <v>0.971611586384754</v>
       </c>
       <c r="M18">
-        <v>1.001332336979295</v>
+        <v>0.9224322143961038</v>
       </c>
       <c r="N18">
-        <v>1.006756964900417</v>
+        <v>0.9939400349889161</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001689014075675</v>
+        <v>0.9420791766768881</v>
       </c>
       <c r="D19">
-        <v>1.024022648879114</v>
+        <v>1.012231509405841</v>
       </c>
       <c r="E19">
-        <v>1.005177489416966</v>
+        <v>0.9573791150827974</v>
       </c>
       <c r="F19">
-        <v>0.9980084920162302</v>
+        <v>0.907524971257082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027815342305294</v>
+        <v>1.044014918495456</v>
       </c>
       <c r="J19">
-        <v>1.007999962080195</v>
+        <v>0.9713755600990769</v>
       </c>
       <c r="K19">
-        <v>1.027373806722037</v>
+        <v>1.025778969665041</v>
       </c>
       <c r="L19">
-        <v>1.008596201784786</v>
+        <v>0.9719077101529852</v>
       </c>
       <c r="M19">
-        <v>1.001453643932613</v>
+        <v>0.9230823407694174</v>
       </c>
       <c r="N19">
-        <v>1.006776416535688</v>
+        <v>0.9940445353616925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001306785723031</v>
+        <v>0.9399767930007874</v>
       </c>
       <c r="D20">
-        <v>1.023829745907683</v>
+        <v>1.010763011282517</v>
       </c>
       <c r="E20">
-        <v>1.004852666315862</v>
+        <v>0.9557079898553141</v>
       </c>
       <c r="F20">
-        <v>0.9973968621890754</v>
+        <v>0.9041916596615613</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027781570346936</v>
+        <v>1.04342441819727</v>
       </c>
       <c r="J20">
-        <v>1.007745984820907</v>
+        <v>0.9700350565044011</v>
       </c>
       <c r="K20">
-        <v>1.027246360540018</v>
+        <v>1.024619209928012</v>
       </c>
       <c r="L20">
-        <v>1.008338748771612</v>
+        <v>0.9705770930920495</v>
       </c>
       <c r="M20">
-        <v>1.000911038655298</v>
+        <v>0.92015798303811</v>
       </c>
       <c r="N20">
-        <v>1.006689389768212</v>
+        <v>0.9935748379898326</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000063773251871</v>
+        <v>0.9329599362337181</v>
       </c>
       <c r="D21">
-        <v>1.023193381061208</v>
+        <v>1.005824523177328</v>
       </c>
       <c r="E21">
-        <v>1.003796837283646</v>
+        <v>0.950143869507753</v>
       </c>
       <c r="F21">
-        <v>0.9954072550388525</v>
+        <v>0.8929995435326209</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027664993056495</v>
+        <v>1.041410666287968</v>
       </c>
       <c r="J21">
-        <v>1.006919303136536</v>
+        <v>0.9655549594400541</v>
       </c>
       <c r="K21">
-        <v>1.026821841561943</v>
+        <v>1.02069638205</v>
       </c>
       <c r="L21">
-        <v>1.007501095313476</v>
+        <v>0.9661356184022899</v>
       </c>
       <c r="M21">
-        <v>0.9991453168265775</v>
+        <v>0.9103374660523219</v>
       </c>
       <c r="N21">
-        <v>1.006405849655614</v>
+        <v>0.9920047503033089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9992819567113377</v>
+        <v>0.9283977269170243</v>
       </c>
       <c r="D22">
-        <v>1.022786227006253</v>
+        <v>1.002588185266324</v>
       </c>
       <c r="E22">
-        <v>1.003133141372291</v>
+        <v>0.9465371257653151</v>
       </c>
       <c r="F22">
-        <v>0.9941553759467042</v>
+        <v>0.8856631930077691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027586509990163</v>
+        <v>1.040069952889099</v>
       </c>
       <c r="J22">
-        <v>1.006398775255053</v>
+        <v>0.9626372899826152</v>
       </c>
       <c r="K22">
-        <v>1.026547147649343</v>
+        <v>1.018108543476333</v>
       </c>
       <c r="L22">
-        <v>1.006973922460185</v>
+        <v>0.9632476826143532</v>
       </c>
       <c r="M22">
-        <v>0.9980338120025594</v>
+        <v>0.9038996218186311</v>
       </c>
       <c r="N22">
-        <v>1.006227108057501</v>
+        <v>0.9909821383012312</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.999696440536912</v>
+        <v>0.9308312634639988</v>
       </c>
       <c r="D23">
-        <v>1.023002733729557</v>
+        <v>1.004316643407697</v>
       </c>
       <c r="E23">
-        <v>1.003484965927849</v>
+        <v>0.9484599413373758</v>
       </c>
       <c r="F23">
-        <v>0.994819113223859</v>
+        <v>0.8895826079053324</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027628606217047</v>
+        <v>1.040787933939622</v>
       </c>
       <c r="J23">
-        <v>1.006674789739233</v>
+        <v>0.9641940694669808</v>
       </c>
       <c r="K23">
-        <v>1.026693504457306</v>
+        <v>1.019492227845273</v>
       </c>
       <c r="L23">
-        <v>1.00725343543061</v>
+        <v>0.9647881493154237</v>
       </c>
       <c r="M23">
-        <v>0.9986231708368029</v>
+        <v>0.9073390238705022</v>
       </c>
       <c r="N23">
-        <v>1.006321906973259</v>
+        <v>0.9915277712517893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001327620389373</v>
+        <v>0.9400920428482046</v>
       </c>
       <c r="D24">
-        <v>1.023840294915894</v>
+        <v>1.010843658275206</v>
       </c>
       <c r="E24">
-        <v>1.004870370035164</v>
+        <v>0.9557995505175247</v>
       </c>
       <c r="F24">
-        <v>0.9974302032580507</v>
+        <v>0.9043746177757988</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027783436694908</v>
+        <v>1.043456951719778</v>
       </c>
       <c r="J24">
-        <v>1.007759831525004</v>
+        <v>0.9701085633702367</v>
       </c>
       <c r="K24">
-        <v>1.027253345444725</v>
+        <v>1.024682986037231</v>
       </c>
       <c r="L24">
-        <v>1.008352783688695</v>
+        <v>0.9706500377845868</v>
       </c>
       <c r="M24">
-        <v>1.000940619516847</v>
+        <v>0.9203185016103151</v>
       </c>
       <c r="N24">
-        <v>1.006694135452648</v>
+        <v>0.9936005954812365</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003219376118636</v>
+        <v>0.9502525922026223</v>
       </c>
       <c r="D25">
-        <v>1.024781422877932</v>
+        <v>1.017880093725814</v>
       </c>
       <c r="E25">
-        <v>1.006478749260444</v>
+        <v>0.9638937688994605</v>
       </c>
       <c r="F25">
-        <v>1.00045655425395</v>
+        <v>0.9204038941932781</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027940447854658</v>
+        <v>1.046245438360872</v>
       </c>
       <c r="J25">
-        <v>1.009015725207216</v>
+        <v>0.9765785177966978</v>
       </c>
       <c r="K25">
-        <v>1.027868987877461</v>
+        <v>1.030207043163232</v>
       </c>
       <c r="L25">
-        <v>1.009626370872034</v>
+        <v>0.9770797006583638</v>
       </c>
       <c r="M25">
-        <v>1.003624464200099</v>
+        <v>0.9343777708368868</v>
       </c>
       <c r="N25">
-        <v>1.007124063766357</v>
+        <v>0.9958668151910697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9579485478811427</v>
+        <v>1.00013077812572</v>
       </c>
       <c r="D2">
-        <v>1.023091368372433</v>
+        <v>1.042656286194725</v>
       </c>
       <c r="E2">
-        <v>0.9700542965998484</v>
+        <v>1.006601425796573</v>
       </c>
       <c r="F2">
-        <v>0.9324254259529806</v>
+        <v>1.039515065690055</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04823588693434</v>
+        <v>1.052759091622447</v>
       </c>
       <c r="J2">
-        <v>0.9814641205734458</v>
+        <v>1.022307578345986</v>
       </c>
       <c r="K2">
-        <v>1.034238110779699</v>
+        <v>1.053551694987914</v>
       </c>
       <c r="L2">
-        <v>0.9819472117454193</v>
+        <v>1.017969552055451</v>
       </c>
       <c r="M2">
-        <v>0.9449139967932568</v>
+        <v>1.050450031240497</v>
       </c>
       <c r="N2">
-        <v>0.9975761866928806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011412880192218</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048500162502836</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.048935887469885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9633269577642327</v>
+        <v>1.003556207088891</v>
       </c>
       <c r="D3">
-        <v>1.026656736711927</v>
+        <v>1.044619342724107</v>
       </c>
       <c r="E3">
-        <v>0.9743752803874035</v>
+        <v>1.009257055222309</v>
       </c>
       <c r="F3">
-        <v>0.9407736036627249</v>
+        <v>1.041781588420588</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04955216868654</v>
+        <v>1.053524613050939</v>
       </c>
       <c r="J3">
-        <v>0.9848698693453305</v>
+        <v>1.023950393555355</v>
       </c>
       <c r="K3">
-        <v>1.036959532729952</v>
+        <v>1.054711449937612</v>
       </c>
       <c r="L3">
-        <v>0.9853468848820135</v>
+        <v>1.019772844787437</v>
       </c>
       <c r="M3">
-        <v>0.9522249147171993</v>
+        <v>1.05190638338914</v>
       </c>
       <c r="N3">
-        <v>0.9987662937553543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011963796033426</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049652754080418</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049753282015099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9667180242602881</v>
+        <v>1.005735637532715</v>
       </c>
       <c r="D4">
-        <v>1.028866762049402</v>
+        <v>1.045873495254078</v>
       </c>
       <c r="E4">
-        <v>0.9771064133042652</v>
+        <v>1.01095251659636</v>
       </c>
       <c r="F4">
-        <v>0.9460168870968084</v>
+        <v>1.043231517525312</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050346101611162</v>
+        <v>1.054002910863128</v>
       </c>
       <c r="J4">
-        <v>0.9870131806027863</v>
+        <v>1.024993754426509</v>
       </c>
       <c r="K4">
-        <v>1.038628840114071</v>
+        <v>1.055448082864479</v>
       </c>
       <c r="L4">
-        <v>0.9874892292024851</v>
+        <v>1.020920527454592</v>
       </c>
       <c r="M4">
-        <v>0.9568136768748501</v>
+        <v>1.052834739387077</v>
       </c>
       <c r="N4">
-        <v>0.9995144411480156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012313700680688</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050387476070156</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050275012577508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9681233544498591</v>
+        <v>1.006644347063767</v>
       </c>
       <c r="D5">
-        <v>1.029773185199953</v>
+        <v>1.046401866173891</v>
       </c>
       <c r="E5">
-        <v>0.9782398134791523</v>
+        <v>1.011660983097461</v>
       </c>
       <c r="F5">
-        <v>0.9481855499103404</v>
+        <v>1.043840122494246</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05066628811199</v>
+        <v>1.054202000453014</v>
       </c>
       <c r="J5">
-        <v>0.9879004498249215</v>
+        <v>1.025428857809368</v>
       </c>
       <c r="K5">
-        <v>1.039309142812778</v>
+        <v>1.055759361073308</v>
       </c>
       <c r="L5">
-        <v>0.9883767614277503</v>
+        <v>1.021399555483276</v>
       </c>
       <c r="M5">
-        <v>0.9587108462610917</v>
+        <v>1.053224657245794</v>
       </c>
       <c r="N5">
-        <v>0.999823940280603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012459860873761</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050696065690399</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050502176378514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9683581560840535</v>
+        <v>1.006797766561629</v>
       </c>
       <c r="D6">
-        <v>1.029924063371728</v>
+        <v>1.046496323217396</v>
       </c>
       <c r="E6">
-        <v>0.9784292711889745</v>
+        <v>1.011780892925055</v>
       </c>
       <c r="F6">
-        <v>0.9485476538046037</v>
+        <v>1.043945676951776</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050719259225547</v>
+        <v>1.054237678617479</v>
       </c>
       <c r="J6">
-        <v>0.9880486372856182</v>
+        <v>1.025502956262461</v>
       </c>
       <c r="K6">
-        <v>1.039422122093371</v>
+        <v>1.055817335296019</v>
       </c>
       <c r="L6">
-        <v>0.9885250312108023</v>
+        <v>1.021480976636269</v>
       </c>
       <c r="M6">
-        <v>0.9590275715264018</v>
+        <v>1.053293490769343</v>
       </c>
       <c r="N6">
-        <v>0.9998756183614799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012485045341895</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050750542050638</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050551790490829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9667368806688124</v>
+        <v>1.005751399904948</v>
       </c>
       <c r="D7">
-        <v>1.028878962103938</v>
+        <v>1.04589652229545</v>
       </c>
       <c r="E7">
-        <v>0.9771216149270426</v>
+        <v>1.010965389977849</v>
       </c>
       <c r="F7">
-        <v>0.9460460018697394</v>
+        <v>1.043249274685226</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050350433012133</v>
+        <v>1.054012223726206</v>
       </c>
       <c r="J7">
-        <v>0.987025089606449</v>
+        <v>1.025003082507987</v>
       </c>
       <c r="K7">
-        <v>1.03863801414487</v>
+        <v>1.055468034756603</v>
       </c>
       <c r="L7">
-        <v>0.987501139139946</v>
+        <v>1.020930291970268</v>
       </c>
       <c r="M7">
-        <v>0.9568391499295096</v>
+        <v>1.052849467610582</v>
       </c>
       <c r="N7">
-        <v>0.9995185961346696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012317630870747</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050399132314413</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050308950668973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9597853264300786</v>
+        <v>1.001300602670558</v>
       </c>
       <c r="D8">
-        <v>1.024316734034519</v>
+        <v>1.043342666109554</v>
       </c>
       <c r="E8">
-        <v>0.9715284891839456</v>
+        <v>1.007507885178658</v>
       </c>
       <c r="F8">
-        <v>0.9352810384625577</v>
+        <v>1.040296310507689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04869285524892</v>
+        <v>1.053029439625258</v>
       </c>
       <c r="J8">
-        <v>0.9826280558903957</v>
+        <v>1.022871144363266</v>
       </c>
       <c r="K8">
-        <v>1.03517709359159</v>
+        <v>1.053965874921533</v>
       </c>
       <c r="L8">
-        <v>0.983108454518182</v>
+        <v>1.01858710879801</v>
       </c>
       <c r="M8">
-        <v>0.9474154113007932</v>
+        <v>1.050956765341352</v>
       </c>
       <c r="N8">
-        <v>0.9979830733841404</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011602901998615</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048901204072685</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049251325975434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.946800786925452</v>
+        <v>0.9931571055234174</v>
       </c>
       <c r="D9">
-        <v>1.015507248178864</v>
+        <v>1.038690856572261</v>
       </c>
       <c r="E9">
-        <v>0.9611390090764103</v>
+        <v>1.001228168171339</v>
       </c>
       <c r="F9">
-        <v>0.9149797869050237</v>
+        <v>1.034946084766687</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045316807020323</v>
+        <v>1.051154500717865</v>
       </c>
       <c r="J9">
-        <v>0.9743828972372874</v>
+        <v>1.018953839863975</v>
       </c>
       <c r="K9">
-        <v>1.028353643349236</v>
+        <v>1.051185910511685</v>
       </c>
       <c r="L9">
-        <v>0.9748957002994553</v>
+        <v>1.014301350582089</v>
       </c>
       <c r="M9">
-        <v>0.9296213473758316</v>
+        <v>1.047496534430948</v>
       </c>
       <c r="N9">
-        <v>0.9950980039690245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010288469958142</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.046162689682538</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047282635779457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.937568483016368</v>
+        <v>0.9875410277412766</v>
       </c>
       <c r="D10">
-        <v>1.009074118800384</v>
+        <v>1.035566531451205</v>
       </c>
       <c r="E10">
-        <v>0.9537959726989973</v>
+        <v>0.9969356013302816</v>
       </c>
       <c r="F10">
-        <v>0.9003622216808123</v>
+        <v>1.031400121776648</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042740418255069</v>
+        <v>1.049842499392104</v>
       </c>
       <c r="J10">
-        <v>0.9684984444397381</v>
+        <v>1.016257833129697</v>
       </c>
       <c r="K10">
-        <v>1.023281447481244</v>
+        <v>1.049322001752661</v>
       </c>
       <c r="L10">
-        <v>0.9690527632806326</v>
+        <v>1.011360405749181</v>
       </c>
       <c r="M10">
-        <v>0.9167980599729705</v>
+        <v>1.045224673335646</v>
       </c>
       <c r="N10">
-        <v>0.9930363614252332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009388103102175</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044415746175723</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.045981352218213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9334129918157615</v>
+        <v>0.9852575958721799</v>
       </c>
       <c r="D11">
-        <v>1.006144924351871</v>
+        <v>1.034695763097195</v>
       </c>
       <c r="E11">
-        <v>0.9505025091571975</v>
+        <v>0.9952307692998148</v>
       </c>
       <c r="F11">
-        <v>0.893725440921452</v>
+        <v>1.030731417756435</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041542536238143</v>
+        <v>1.049477145869371</v>
       </c>
       <c r="J11">
-        <v>0.9658444990194034</v>
+        <v>1.015256802108259</v>
       </c>
       <c r="K11">
-        <v>1.02095187941545</v>
+        <v>1.048991744882302</v>
       </c>
       <c r="L11">
-        <v>0.9664224037695215</v>
+        <v>1.010243190284581</v>
       </c>
       <c r="M11">
-        <v>0.9109744503736822</v>
+        <v>1.045096157903623</v>
       </c>
       <c r="N11">
-        <v>0.9921062302914593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009086542738628</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044747115764978</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045780232743896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9318436687476379</v>
+        <v>0.984453209484791</v>
       </c>
       <c r="D12">
-        <v>1.005034294761868</v>
+        <v>1.034525716547584</v>
       </c>
       <c r="E12">
-        <v>0.9492605915504053</v>
+        <v>0.9946421831402082</v>
       </c>
       <c r="F12">
-        <v>0.8912090268062498</v>
+        <v>1.030778459761973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041084745136768</v>
+        <v>1.049400331653962</v>
       </c>
       <c r="J12">
-        <v>0.9648414153495261</v>
+        <v>1.014930429169514</v>
       </c>
       <c r="K12">
-        <v>1.020065677037083</v>
+        <v>1.049020060456893</v>
       </c>
       <c r="L12">
-        <v>0.9654290134301791</v>
+        <v>1.009872755402921</v>
       </c>
       <c r="M12">
-        <v>0.9087662510348526</v>
+        <v>1.045338830519478</v>
       </c>
       <c r="N12">
-        <v>0.9917546603309013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009003171237652</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045263275164388</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.045800252235595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9321814970377228</v>
+        <v>0.9847400776525003</v>
       </c>
       <c r="D13">
-        <v>1.005273568579274</v>
+        <v>1.034906949551275</v>
       </c>
       <c r="E13">
-        <v>0.9495278534437012</v>
+        <v>0.9948769655665096</v>
       </c>
       <c r="F13">
-        <v>0.8917512133647498</v>
+        <v>1.031405543915469</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041183532369408</v>
+        <v>1.049555414870278</v>
       </c>
       <c r="J13">
-        <v>0.9650573866561769</v>
+        <v>1.015109565256235</v>
       </c>
       <c r="K13">
-        <v>1.020256731067155</v>
+        <v>1.04935271568943</v>
       </c>
       <c r="L13">
-        <v>0.9656428616942656</v>
+        <v>1.010058611126859</v>
       </c>
       <c r="M13">
-        <v>0.9092420325382387</v>
+        <v>1.045912721819499</v>
       </c>
       <c r="N13">
-        <v>0.9918303562730492</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009085937302509</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045992054675163</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.046032987532343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9332838100880801</v>
+        <v>0.9854342317816477</v>
       </c>
       <c r="D14">
-        <v>1.006053586573631</v>
+        <v>1.035423603900437</v>
       </c>
       <c r="E14">
-        <v>0.9504002400164222</v>
+        <v>0.9954133514464047</v>
       </c>
       <c r="F14">
-        <v>0.8935185101102435</v>
+        <v>1.032105649792283</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041504960057253</v>
+        <v>1.049767934960993</v>
       </c>
       <c r="J14">
-        <v>0.9657619451119195</v>
+        <v>1.015462314141956</v>
       </c>
       <c r="K14">
-        <v>1.020879057303193</v>
+        <v>1.049723170805765</v>
       </c>
       <c r="L14">
-        <v>0.9663406315248364</v>
+        <v>1.010439369899224</v>
       </c>
       <c r="M14">
-        <v>0.9107928662969845</v>
+        <v>1.046462687140504</v>
       </c>
       <c r="N14">
-        <v>0.9920772962376159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009218649835764</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.046599201759518</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.046296308186762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9339594978170854</v>
+        <v>0.9858435004731408</v>
       </c>
       <c r="D15">
-        <v>1.00653115496801</v>
+        <v>1.035681540419351</v>
       </c>
       <c r="E15">
-        <v>0.9509352372330097</v>
+        <v>0.9957262269421114</v>
       </c>
       <c r="F15">
-        <v>0.8946004490367299</v>
+        <v>1.032420576877533</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04170128505091</v>
+        <v>1.049876084514159</v>
       </c>
       <c r="J15">
-        <v>0.9661937115615231</v>
+        <v>1.015662565905406</v>
       </c>
       <c r="K15">
-        <v>1.021259696371353</v>
+        <v>1.049892159911876</v>
       </c>
       <c r="L15">
-        <v>0.9667683417611845</v>
+        <v>1.010656814295019</v>
       </c>
       <c r="M15">
-        <v>0.911742275982192</v>
+        <v>1.046687255534408</v>
       </c>
       <c r="N15">
-        <v>0.9922286241107073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009288922921235</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046814056449909</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.046421571092725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.937840772438751</v>
+        <v>0.9881645611986157</v>
       </c>
       <c r="D16">
-        <v>1.009265409203062</v>
+        <v>1.036946136492302</v>
       </c>
       <c r="E16">
-        <v>0.9540120283963391</v>
+        <v>0.9974909515641954</v>
       </c>
       <c r="F16">
-        <v>0.9007957944123274</v>
+        <v>1.033840514549075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042818143987246</v>
+        <v>1.050423215686658</v>
       </c>
       <c r="J16">
-        <v>0.9686722327538856</v>
+        <v>1.016777437908103</v>
       </c>
       <c r="K16">
-        <v>1.023433172621418</v>
+        <v>1.050644073488931</v>
       </c>
       <c r="L16">
-        <v>0.9692251118085194</v>
+        <v>1.011868844471561</v>
       </c>
       <c r="M16">
-        <v>0.9171784877944081</v>
+        <v>1.047589550923716</v>
       </c>
       <c r="N16">
-        <v>0.9930972651190644</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009657179360184</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.047488702959497</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046956309907596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9402317484861817</v>
+        <v>0.9895844724583724</v>
       </c>
       <c r="D17">
-        <v>1.01094139622666</v>
+        <v>1.037647086404718</v>
       </c>
       <c r="E17">
-        <v>0.9559105476525894</v>
+        <v>0.9985678046404982</v>
       </c>
       <c r="F17">
-        <v>0.9045963630360891</v>
+        <v>1.034559410746112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043496363820946</v>
+        <v>1.050729739569789</v>
       </c>
       <c r="J17">
-        <v>0.9701976648094255</v>
+        <v>1.017448873026469</v>
       </c>
       <c r="K17">
-        <v>1.024760264815615</v>
+        <v>1.051025725516419</v>
       </c>
       <c r="L17">
-        <v>0.9707384608976295</v>
+        <v>1.012600992115423</v>
       </c>
       <c r="M17">
-        <v>0.9205130491138692</v>
+        <v>1.047987457990711</v>
       </c>
       <c r="N17">
-        <v>0.9936318172378182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009870412682171</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047674846552907</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.047228698208615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9416112877841714</v>
+        <v>0.9903574300710785</v>
       </c>
       <c r="D18">
-        <v>1.01190518914984</v>
+        <v>1.03789236302607</v>
       </c>
       <c r="E18">
-        <v>0.9570070423621526</v>
+        <v>0.9991451575101372</v>
       </c>
       <c r="F18">
-        <v>0.9067839005640493</v>
+        <v>1.034684916117858</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043884053311239</v>
+        <v>1.050842270551157</v>
       </c>
       <c r="J18">
-        <v>0.9710773036090241</v>
+        <v>1.017789737576833</v>
       </c>
       <c r="K18">
-        <v>1.025521539750436</v>
+        <v>1.05108758054444</v>
       </c>
       <c r="L18">
-        <v>0.971611586384754</v>
+        <v>1.012978662981308</v>
       </c>
       <c r="M18">
-        <v>0.9224322143961038</v>
+        <v>1.047930646311396</v>
       </c>
       <c r="N18">
-        <v>0.9939400349889161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00996495465576</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.047393619082063</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04726096325386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9420791766768881</v>
+        <v>0.9905260947632347</v>
       </c>
       <c r="D19">
-        <v>1.012231509405841</v>
+        <v>1.037729189766418</v>
       </c>
       <c r="E19">
-        <v>0.9573791150827974</v>
+        <v>0.9992541287254224</v>
       </c>
       <c r="F19">
-        <v>0.907524971257082</v>
+        <v>1.034260032568153</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044014918495456</v>
+        <v>1.050773704581695</v>
       </c>
       <c r="J19">
-        <v>0.9713755600990769</v>
+        <v>1.017815103731982</v>
       </c>
       <c r="K19">
-        <v>1.025778969665041</v>
+        <v>1.050865740125873</v>
       </c>
       <c r="L19">
-        <v>0.9719077101529852</v>
+        <v>1.013021136677936</v>
       </c>
       <c r="M19">
-        <v>0.9230823407694174</v>
+        <v>1.047450966378301</v>
       </c>
       <c r="N19">
-        <v>0.9940445353616925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009949280853715</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04669094534153</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.047110422785621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,81 +1387,105 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9399767930007874</v>
+        <v>0.9890034286370498</v>
       </c>
       <c r="D20">
-        <v>1.010763011282517</v>
+        <v>1.036413798242593</v>
       </c>
       <c r="E20">
-        <v>0.9557079898553141</v>
+        <v>0.9980526420481084</v>
       </c>
       <c r="F20">
-        <v>0.9041916596615613</v>
+        <v>1.032342342577571</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04342441819727</v>
+        <v>1.050201794869283</v>
       </c>
       <c r="J20">
-        <v>0.9700350565044011</v>
+        <v>1.01696493140939</v>
       </c>
       <c r="K20">
-        <v>1.024619209928012</v>
+        <v>1.049845211512949</v>
       </c>
       <c r="L20">
-        <v>0.9705770930920495</v>
+        <v>1.012129820044313</v>
       </c>
       <c r="M20">
-        <v>0.92015798303811</v>
+        <v>1.045839370767425</v>
       </c>
       <c r="N20">
-        <v>0.9935748379898326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009626707711228</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044891736746771</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046392753986347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9329599362337181</v>
+        <v>0.9847511871996408</v>
       </c>
       <c r="D21">
-        <v>1.005824523177328</v>
+        <v>1.033978446787968</v>
       </c>
       <c r="E21">
-        <v>0.950143869507753</v>
+        <v>0.9948083281638906</v>
       </c>
       <c r="F21">
-        <v>0.8929995435326209</v>
+        <v>1.029522445196791</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041410666287968</v>
+        <v>1.04915583417195</v>
       </c>
       <c r="J21">
-        <v>0.9655549594400541</v>
+        <v>1.014900585474149</v>
       </c>
       <c r="K21">
-        <v>1.02069638205</v>
+        <v>1.04834346628599</v>
       </c>
       <c r="L21">
-        <v>0.9661356184022899</v>
+        <v>1.009888730451378</v>
       </c>
       <c r="M21">
-        <v>0.9103374660523219</v>
+        <v>1.043965290607761</v>
       </c>
       <c r="N21">
-        <v>0.9920047503033089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008931159544001</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04336796336515</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.045334166809373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9283977269170243</v>
+        <v>0.9820376649749573</v>
       </c>
       <c r="D22">
-        <v>1.002588185266324</v>
+        <v>1.032442619826505</v>
       </c>
       <c r="E22">
-        <v>0.9465371257653151</v>
+        <v>0.9927471195088009</v>
       </c>
       <c r="F22">
-        <v>0.8856631930077691</v>
+        <v>1.027774882826888</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040069952889099</v>
+        <v>1.048486136893279</v>
       </c>
       <c r="J22">
-        <v>0.9626372899826152</v>
+        <v>1.013587001094884</v>
       </c>
       <c r="K22">
-        <v>1.018108543476333</v>
+        <v>1.047397661659853</v>
       </c>
       <c r="L22">
-        <v>0.9632476826143532</v>
+        <v>1.008463639762732</v>
       </c>
       <c r="M22">
-        <v>0.9038996218186311</v>
+        <v>1.04281548914071</v>
       </c>
       <c r="N22">
-        <v>0.9909821383012312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008489528509411</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042457975628735</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044652138433394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9308312634639988</v>
+        <v>0.9834780856925111</v>
       </c>
       <c r="D23">
-        <v>1.004316643407697</v>
+        <v>1.033245068000295</v>
       </c>
       <c r="E23">
-        <v>0.9484599413373758</v>
+        <v>0.9938398912234606</v>
       </c>
       <c r="F23">
-        <v>0.8895826079053324</v>
+        <v>1.028695276332584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040787933939622</v>
+        <v>1.048837659970619</v>
       </c>
       <c r="J23">
-        <v>0.9641940694669808</v>
+        <v>1.01428300475779</v>
       </c>
       <c r="K23">
-        <v>1.019492227845273</v>
+        <v>1.047887251120278</v>
       </c>
       <c r="L23">
-        <v>0.9647881493154237</v>
+        <v>1.009218710156114</v>
       </c>
       <c r="M23">
-        <v>0.9073390238705022</v>
+        <v>1.043418768195219</v>
       </c>
       <c r="N23">
-        <v>0.9915277712517893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008722656605713</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042935429102435</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.04498879025382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9400920428482046</v>
+        <v>0.9890477725881168</v>
       </c>
       <c r="D24">
-        <v>1.010843658275206</v>
+        <v>1.036382254352984</v>
       </c>
       <c r="E24">
-        <v>0.9557995505175247</v>
+        <v>0.9980823819890466</v>
       </c>
       <c r="F24">
-        <v>0.9043746177757988</v>
+        <v>1.032285716024756</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043456951719778</v>
+        <v>1.050187067297712</v>
       </c>
       <c r="J24">
-        <v>0.9701085633702367</v>
+        <v>1.016974036849876</v>
       </c>
       <c r="K24">
-        <v>1.024682986037231</v>
+        <v>1.049799223324817</v>
       </c>
       <c r="L24">
-        <v>0.9706500377845868</v>
+        <v>1.012143257044774</v>
       </c>
       <c r="M24">
-        <v>0.9203185016103151</v>
+        <v>1.045768627079091</v>
       </c>
       <c r="N24">
-        <v>0.9936005954812365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009625537976065</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04479517622696</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.046333215263304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9502525922026223</v>
+        <v>0.9953043715752212</v>
       </c>
       <c r="D25">
-        <v>1.017880093725814</v>
+        <v>1.039933403702529</v>
       </c>
       <c r="E25">
-        <v>0.9638937688994605</v>
+        <v>1.002879256753976</v>
       </c>
       <c r="F25">
-        <v>0.9204038941932781</v>
+        <v>1.036360049991558</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046245438360872</v>
+        <v>1.05166524345917</v>
       </c>
       <c r="J25">
-        <v>0.9765785177966978</v>
+        <v>1.019990802326941</v>
       </c>
       <c r="K25">
-        <v>1.030207043163232</v>
+        <v>1.051941892657979</v>
       </c>
       <c r="L25">
-        <v>0.9770797006583638</v>
+        <v>1.015433039797436</v>
       </c>
       <c r="M25">
-        <v>0.9343777708368868</v>
+        <v>1.048418976299291</v>
       </c>
       <c r="N25">
-        <v>0.9958668151910697</v>
+        <v>1.010637765686283</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046892734534849</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047845332194186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_4/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00013077812572</v>
+        <v>0.9999546490762066</v>
       </c>
       <c r="D2">
-        <v>1.042656286194725</v>
+        <v>1.039632836802974</v>
       </c>
       <c r="E2">
-        <v>1.006601425796573</v>
+        <v>1.006451603693729</v>
       </c>
       <c r="F2">
-        <v>1.039515065690055</v>
+        <v>1.037688158266513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052759091622447</v>
+        <v>1.051564698196577</v>
       </c>
       <c r="J2">
-        <v>1.022307578345986</v>
+        <v>1.022136716667192</v>
       </c>
       <c r="K2">
-        <v>1.053551694987914</v>
+        <v>1.050566313903074</v>
       </c>
       <c r="L2">
-        <v>1.017969552055451</v>
+        <v>1.017821783253748</v>
       </c>
       <c r="M2">
-        <v>1.050450031240497</v>
+        <v>1.048646267215908</v>
       </c>
       <c r="N2">
-        <v>1.011412880192218</v>
+        <v>1.013121014151384</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048500162502836</v>
+        <v>1.047072618457021</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048935887469885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046833678184417</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025462938364138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003556207088891</v>
+        <v>1.003317322362253</v>
       </c>
       <c r="D3">
-        <v>1.044619342724107</v>
+        <v>1.041440934609535</v>
       </c>
       <c r="E3">
-        <v>1.009257055222309</v>
+        <v>1.009052262617846</v>
       </c>
       <c r="F3">
-        <v>1.041781588420588</v>
+        <v>1.039854253922504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053524613050939</v>
+        <v>1.052255217796168</v>
       </c>
       <c r="J3">
-        <v>1.023950393555355</v>
+        <v>1.023717960532128</v>
       </c>
       <c r="K3">
-        <v>1.054711449937612</v>
+        <v>1.051569668324895</v>
       </c>
       <c r="L3">
-        <v>1.019772844787437</v>
+        <v>1.019570613605986</v>
       </c>
       <c r="M3">
-        <v>1.05190638338914</v>
+        <v>1.050001375369372</v>
       </c>
       <c r="N3">
-        <v>1.011963796033426</v>
+        <v>1.013542474580514</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049652754080418</v>
+        <v>1.04814508526165</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049753282015099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047540214104136</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025631334285191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005735637532715</v>
+        <v>1.005457083463926</v>
       </c>
       <c r="D4">
-        <v>1.045873495254078</v>
+        <v>1.042596692566921</v>
       </c>
       <c r="E4">
-        <v>1.01095251659636</v>
+        <v>1.010712934401548</v>
       </c>
       <c r="F4">
-        <v>1.043231517525312</v>
+        <v>1.041240460163744</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054002910863128</v>
+        <v>1.052685754442895</v>
       </c>
       <c r="J4">
-        <v>1.024993754426509</v>
+        <v>1.024722219149252</v>
       </c>
       <c r="K4">
-        <v>1.055448082864479</v>
+        <v>1.052206821317407</v>
       </c>
       <c r="L4">
-        <v>1.020920527454592</v>
+        <v>1.020683760587286</v>
       </c>
       <c r="M4">
-        <v>1.052834739387077</v>
+        <v>1.050865379346149</v>
       </c>
       <c r="N4">
-        <v>1.012313700680688</v>
+        <v>1.01381018132701</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050387476070156</v>
+        <v>1.048828879011463</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050275012577508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047991692224106</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02573599435758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006644347063767</v>
+        <v>1.006349231497621</v>
       </c>
       <c r="D5">
-        <v>1.046401866173891</v>
+        <v>1.04308392979091</v>
       </c>
       <c r="E5">
-        <v>1.011660983097461</v>
+        <v>1.011406860865569</v>
       </c>
       <c r="F5">
-        <v>1.043840122494246</v>
+        <v>1.041822435030367</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054202000453014</v>
+        <v>1.052864842202543</v>
       </c>
       <c r="J5">
-        <v>1.025428857809368</v>
+        <v>1.025140958181335</v>
       </c>
       <c r="K5">
-        <v>1.055759361073308</v>
+        <v>1.052476477412942</v>
       </c>
       <c r="L5">
-        <v>1.021399555483276</v>
+        <v>1.021148339713964</v>
       </c>
       <c r="M5">
-        <v>1.053224657245794</v>
+        <v>1.051228381558885</v>
       </c>
       <c r="N5">
-        <v>1.012459860873761</v>
+        <v>1.013921985772368</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050696065690399</v>
+        <v>1.049116167598788</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050502176378514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048190145171052</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025780400012323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006797766561629</v>
+        <v>1.006499762518436</v>
       </c>
       <c r="D6">
-        <v>1.046496323217396</v>
+        <v>1.043171254900525</v>
       </c>
       <c r="E6">
-        <v>1.011780892925055</v>
+        <v>1.011524225328301</v>
       </c>
       <c r="F6">
-        <v>1.043945676951776</v>
+        <v>1.041923372572424</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054237678617479</v>
+        <v>1.052897048165938</v>
       </c>
       <c r="J6">
-        <v>1.025502956262461</v>
+        <v>1.025212201692856</v>
       </c>
       <c r="K6">
-        <v>1.055817335296019</v>
+        <v>1.052527237928661</v>
       </c>
       <c r="L6">
-        <v>1.021480976636269</v>
+        <v>1.0212272311491</v>
       </c>
       <c r="M6">
-        <v>1.053293490769343</v>
+        <v>1.051292550497825</v>
       </c>
       <c r="N6">
-        <v>1.012485045341895</v>
+        <v>1.013941219525799</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050750542050638</v>
+        <v>1.049166952412158</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050551790490829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048235535388895</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025789529656989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005751399904948</v>
+        <v>1.005480337807074</v>
       </c>
       <c r="D7">
-        <v>1.04589652229545</v>
+        <v>1.042620608104907</v>
       </c>
       <c r="E7">
-        <v>1.010965389977849</v>
+        <v>1.010732445581303</v>
       </c>
       <c r="F7">
-        <v>1.043249274685226</v>
+        <v>1.041260153136867</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054012223726206</v>
+        <v>1.052697314146468</v>
       </c>
       <c r="J7">
-        <v>1.025003082507987</v>
+        <v>1.024738847570307</v>
       </c>
       <c r="K7">
-        <v>1.055468034756603</v>
+        <v>1.05222763830778</v>
       </c>
       <c r="L7">
-        <v>1.020930291970268</v>
+        <v>1.020700083874549</v>
       </c>
       <c r="M7">
-        <v>1.052849467610582</v>
+        <v>1.050882014127773</v>
       </c>
       <c r="N7">
-        <v>1.012317630870747</v>
+        <v>1.013841065606787</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050399132314413</v>
+        <v>1.048842044175826</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050308950668973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048028258229226</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025741903667926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001300602670558</v>
+        <v>1.001127324327664</v>
       </c>
       <c r="D8">
-        <v>1.043342666109554</v>
+        <v>1.040272086261143</v>
       </c>
       <c r="E8">
-        <v>1.007507885178658</v>
+        <v>1.007360863373289</v>
       </c>
       <c r="F8">
-        <v>1.040296310507689</v>
+        <v>1.038443029765638</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053029439625258</v>
+        <v>1.05181784277641</v>
       </c>
       <c r="J8">
-        <v>1.022871144363266</v>
+        <v>1.022702875766954</v>
       </c>
       <c r="K8">
-        <v>1.053965874921533</v>
+        <v>1.050932838357963</v>
       </c>
       <c r="L8">
-        <v>1.01858710879801</v>
+        <v>1.018442041768593</v>
       </c>
       <c r="M8">
-        <v>1.050956765341352</v>
+        <v>1.049126276622468</v>
       </c>
       <c r="N8">
-        <v>1.011602901998615</v>
+        <v>1.013351301740581</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048901204072685</v>
+        <v>1.047452510197908</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049251325975434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047117709206981</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025528502333843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9931571055234174</v>
+        <v>0.9931386162536431</v>
       </c>
       <c r="D9">
-        <v>1.038690856572261</v>
+        <v>1.035991385160669</v>
       </c>
       <c r="E9">
-        <v>1.001228168171339</v>
+        <v>1.001216514661881</v>
       </c>
       <c r="F9">
-        <v>1.034946084766687</v>
+        <v>1.033334280663879</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051154500717865</v>
+        <v>1.05012255463621</v>
       </c>
       <c r="J9">
-        <v>1.018953839863975</v>
+        <v>1.018936016197331</v>
       </c>
       <c r="K9">
-        <v>1.051185910511685</v>
+        <v>1.048526320679317</v>
       </c>
       <c r="L9">
-        <v>1.014301350582089</v>
+        <v>1.01428988555051</v>
       </c>
       <c r="M9">
-        <v>1.047496534430948</v>
+        <v>1.045908730648082</v>
       </c>
       <c r="N9">
-        <v>1.010288469958142</v>
+        <v>1.012356377822802</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.046162689682538</v>
+        <v>1.044906058144149</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047282635779457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045412767585123</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025109566517296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9875410277412766</v>
+        <v>0.9876644761288822</v>
       </c>
       <c r="D10">
-        <v>1.035566531451205</v>
+        <v>1.033126475754101</v>
       </c>
       <c r="E10">
-        <v>0.9969356013302816</v>
+        <v>0.9970480021774877</v>
       </c>
       <c r="F10">
-        <v>1.031400121776648</v>
+        <v>1.029963952409144</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049842499392104</v>
+        <v>1.048943725156288</v>
       </c>
       <c r="J10">
-        <v>1.016257833129697</v>
+        <v>1.016376207217022</v>
       </c>
       <c r="K10">
-        <v>1.049322001752661</v>
+        <v>1.046922316415168</v>
       </c>
       <c r="L10">
-        <v>1.011360405749181</v>
+        <v>1.011470761197068</v>
       </c>
       <c r="M10">
-        <v>1.045224673335646</v>
+        <v>1.043812483333752</v>
       </c>
       <c r="N10">
-        <v>1.009388103102175</v>
+        <v>1.011793922153594</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044415746175723</v>
+        <v>1.043298166420835</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045981352218213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044296929590947</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024827245937817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9852575958721799</v>
+        <v>0.9854799160904145</v>
       </c>
       <c r="D11">
-        <v>1.034695763097195</v>
+        <v>1.032321437469532</v>
       </c>
       <c r="E11">
-        <v>0.9952307692998148</v>
+        <v>0.9954282310655427</v>
       </c>
       <c r="F11">
-        <v>1.030731417756435</v>
+        <v>1.029354679167988</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049477145869371</v>
+        <v>1.048629580115409</v>
       </c>
       <c r="J11">
-        <v>1.015256802108259</v>
+        <v>1.015469476683887</v>
       </c>
       <c r="K11">
-        <v>1.048991744882302</v>
+        <v>1.0466585179203</v>
       </c>
       <c r="L11">
-        <v>1.010243190284581</v>
+        <v>1.01043688234369</v>
       </c>
       <c r="M11">
-        <v>1.045096157903623</v>
+        <v>1.043743458224092</v>
       </c>
       <c r="N11">
-        <v>1.009086542738628</v>
+        <v>1.01180362464869</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044747115764978</v>
+        <v>1.043677147010839</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045780232743896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044146033073966</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024830249690361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.984453209484791</v>
+        <v>0.9847147527276302</v>
       </c>
       <c r="D12">
-        <v>1.034525716547584</v>
+        <v>1.032156742847632</v>
       </c>
       <c r="E12">
-        <v>0.9946421831402082</v>
+        <v>0.994872423267974</v>
       </c>
       <c r="F12">
-        <v>1.030778459761973</v>
+        <v>1.029415582407837</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049400331653962</v>
+        <v>1.04856715083554</v>
       </c>
       <c r="J12">
-        <v>1.014930429169514</v>
+        <v>1.015180401326955</v>
       </c>
       <c r="K12">
-        <v>1.049020060456893</v>
+        <v>1.04669275591692</v>
       </c>
       <c r="L12">
-        <v>1.009872755402921</v>
+        <v>1.010098523325821</v>
       </c>
       <c r="M12">
-        <v>1.045338830519478</v>
+        <v>1.044000121821433</v>
       </c>
       <c r="N12">
-        <v>1.009003171237652</v>
+        <v>1.011845528990671</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045263275164388</v>
+        <v>1.044204727115809</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045800252235595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044170239399384</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024866391075779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9847400776525003</v>
+        <v>0.9849855702819348</v>
       </c>
       <c r="D13">
-        <v>1.034906949551275</v>
+        <v>1.032493138184641</v>
       </c>
       <c r="E13">
-        <v>0.9948769655665096</v>
+        <v>0.9950915443495451</v>
       </c>
       <c r="F13">
-        <v>1.031405543915469</v>
+        <v>1.030017647547121</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049555414870278</v>
+        <v>1.04870449035367</v>
       </c>
       <c r="J13">
-        <v>1.015109565256235</v>
+        <v>1.015344245563117</v>
       </c>
       <c r="K13">
-        <v>1.04935271568943</v>
+        <v>1.046981182786537</v>
       </c>
       <c r="L13">
-        <v>1.010058611126859</v>
+        <v>1.010269038426798</v>
       </c>
       <c r="M13">
-        <v>1.045912721819499</v>
+        <v>1.044549317867591</v>
       </c>
       <c r="N13">
-        <v>1.009085937302509</v>
+        <v>1.01188146988605</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045992054675163</v>
+        <v>1.044914247586687</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046032987532343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.0443714569136</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02493901490944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9854342317816477</v>
+        <v>0.9856445402477233</v>
       </c>
       <c r="D14">
-        <v>1.035423603900437</v>
+        <v>1.032956530127426</v>
       </c>
       <c r="E14">
-        <v>0.9954133514464047</v>
+        <v>0.9955961325622065</v>
       </c>
       <c r="F14">
-        <v>1.032105649792283</v>
+        <v>1.030683439741117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049767934960993</v>
+        <v>1.048890697746185</v>
       </c>
       <c r="J14">
-        <v>1.015462314141956</v>
+        <v>1.015663489535262</v>
       </c>
       <c r="K14">
-        <v>1.049723170805765</v>
+        <v>1.047298783780762</v>
       </c>
       <c r="L14">
-        <v>1.010439369899224</v>
+        <v>1.010618658596124</v>
       </c>
       <c r="M14">
-        <v>1.046462687140504</v>
+        <v>1.045065257977704</v>
       </c>
       <c r="N14">
-        <v>1.009218649835764</v>
+        <v>1.011904936422115</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.046599201759518</v>
+        <v>1.045494644809597</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046296308186762</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044597545028563</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025006348965891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9858435004731408</v>
+        <v>0.9860332838380034</v>
       </c>
       <c r="D15">
-        <v>1.035681540419351</v>
+        <v>1.033189604208538</v>
       </c>
       <c r="E15">
-        <v>0.9957262269421114</v>
+        <v>0.9958908467082634</v>
       </c>
       <c r="F15">
-        <v>1.032420576877533</v>
+        <v>1.030980933279795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049876084514159</v>
+        <v>1.048984971024593</v>
       </c>
       <c r="J15">
-        <v>1.015662565905406</v>
+        <v>1.015844178809411</v>
       </c>
       <c r="K15">
-        <v>1.049892159911876</v>
+        <v>1.047443021299332</v>
       </c>
       <c r="L15">
-        <v>1.010656814295019</v>
+        <v>1.010818312767383</v>
       </c>
       <c r="M15">
-        <v>1.046687255534408</v>
+        <v>1.045272506826668</v>
       </c>
       <c r="N15">
-        <v>1.009288922921235</v>
+        <v>1.011913474663646</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046814056449909</v>
+        <v>1.045695839062104</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046421571092725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.04470588227337</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025034471690232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9881645611986157</v>
+        <v>0.9882439564743097</v>
       </c>
       <c r="D16">
-        <v>1.036946136492302</v>
+        <v>1.034338246634521</v>
       </c>
       <c r="E16">
-        <v>0.9974909515641954</v>
+        <v>0.9975593417070214</v>
       </c>
       <c r="F16">
-        <v>1.033840514549075</v>
+        <v>1.032312694389366</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050423215686658</v>
+        <v>1.049459883887305</v>
       </c>
       <c r="J16">
-        <v>1.016777437908103</v>
+        <v>1.016853585777107</v>
       </c>
       <c r="K16">
-        <v>1.050644073488931</v>
+        <v>1.048079066841958</v>
       </c>
       <c r="L16">
-        <v>1.011868844471561</v>
+        <v>1.011935995481862</v>
       </c>
       <c r="M16">
-        <v>1.047589550923716</v>
+        <v>1.046087014517407</v>
       </c>
       <c r="N16">
-        <v>1.009657179360184</v>
+        <v>1.011972092921978</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047488702959497</v>
+        <v>1.046301064785618</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046956309907596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045159005537855</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025147999481252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9895844724583724</v>
+        <v>0.9896061421572039</v>
       </c>
       <c r="D17">
-        <v>1.037647086404718</v>
+        <v>1.03498000753559</v>
       </c>
       <c r="E17">
-        <v>0.9985678046404982</v>
+        <v>0.9985863451193693</v>
       </c>
       <c r="F17">
-        <v>1.034559410746112</v>
+        <v>1.032984567105672</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050729739569789</v>
+        <v>1.049727615214715</v>
       </c>
       <c r="J17">
-        <v>1.017448873026469</v>
+        <v>1.017469685000882</v>
       </c>
       <c r="K17">
-        <v>1.051025725516419</v>
+        <v>1.048401302262347</v>
       </c>
       <c r="L17">
-        <v>1.012600992115423</v>
+        <v>1.012619206310514</v>
       </c>
       <c r="M17">
-        <v>1.047987457990711</v>
+        <v>1.046437960529222</v>
       </c>
       <c r="N17">
-        <v>1.009870412682171</v>
+        <v>1.012034055566021</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047674846552907</v>
+        <v>1.046449968425668</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047228698208615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045389636861042</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025199184854266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9903574300710785</v>
+        <v>0.990352442771803</v>
       </c>
       <c r="D18">
-        <v>1.03789236302607</v>
+        <v>1.03521078775768</v>
       </c>
       <c r="E18">
-        <v>0.9991451575101372</v>
+        <v>0.9991413637474109</v>
       </c>
       <c r="F18">
-        <v>1.034684916117858</v>
+        <v>1.03309331132114</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050842270551157</v>
+        <v>1.049825120990198</v>
       </c>
       <c r="J18">
-        <v>1.017789737576833</v>
+        <v>1.017784943915883</v>
       </c>
       <c r="K18">
-        <v>1.05108758054444</v>
+        <v>1.048448208765555</v>
       </c>
       <c r="L18">
-        <v>1.012978662981308</v>
+        <v>1.012974934849237</v>
       </c>
       <c r="M18">
-        <v>1.047930646311396</v>
+        <v>1.046364256151018</v>
       </c>
       <c r="N18">
-        <v>1.00996495465576</v>
+        <v>1.012063638241198</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.047393619082063</v>
+        <v>1.0461551317967</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04726096325386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045410190183197</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02519042121677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9905260947632347</v>
+        <v>0.9905206128913755</v>
       </c>
       <c r="D19">
-        <v>1.037729189766418</v>
+        <v>1.035074357473196</v>
       </c>
       <c r="E19">
-        <v>0.9992541287254224</v>
+        <v>0.9992511400708741</v>
       </c>
       <c r="F19">
-        <v>1.034260032568153</v>
+        <v>1.032680121894082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050773704581695</v>
+        <v>1.049763892177068</v>
       </c>
       <c r="J19">
-        <v>1.017815103731982</v>
+        <v>1.017809833351168</v>
       </c>
       <c r="K19">
-        <v>1.050865740125873</v>
+        <v>1.048252483812485</v>
       </c>
       <c r="L19">
-        <v>1.013021136677936</v>
+        <v>1.01301819943374</v>
       </c>
       <c r="M19">
-        <v>1.047450966378301</v>
+        <v>1.045895977850587</v>
       </c>
       <c r="N19">
-        <v>1.009949280853715</v>
+        <v>1.012042366881587</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04669094534153</v>
+        <v>1.045461075842054</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047110422785621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045278744107827</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025127014779975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9890034286370498</v>
+        <v>0.989066573111831</v>
       </c>
       <c r="D20">
-        <v>1.036413798242593</v>
+        <v>1.033898305729537</v>
       </c>
       <c r="E20">
-        <v>0.9980526420481084</v>
+        <v>0.9981119029972984</v>
       </c>
       <c r="F20">
-        <v>1.032342342577571</v>
+        <v>1.030851422995836</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050201794869283</v>
+        <v>1.049259481060379</v>
       </c>
       <c r="J20">
-        <v>1.01696493140939</v>
+        <v>1.017025564676767</v>
       </c>
       <c r="K20">
-        <v>1.049845211512949</v>
+        <v>1.047370179970643</v>
       </c>
       <c r="L20">
-        <v>1.012129820044313</v>
+        <v>1.012188033761557</v>
       </c>
       <c r="M20">
-        <v>1.045839370767425</v>
+        <v>1.044372645136086</v>
       </c>
       <c r="N20">
-        <v>1.009626707711228</v>
+        <v>1.011869603470188</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044891736746771</v>
+        <v>1.043730984616237</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046392753986347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044659194574099</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024911106507149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9847511871996408</v>
+        <v>0.9850340170738906</v>
       </c>
       <c r="D21">
-        <v>1.033978446787968</v>
+        <v>1.03169902563078</v>
       </c>
       <c r="E21">
-        <v>0.9948083281638906</v>
+        <v>0.9950616862267654</v>
       </c>
       <c r="F21">
-        <v>1.029522445196791</v>
+        <v>1.028208457281242</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04915583417195</v>
+        <v>1.048357231629935</v>
       </c>
       <c r="J21">
-        <v>1.014900585474149</v>
+        <v>1.015171065648142</v>
       </c>
       <c r="K21">
-        <v>1.04834346628599</v>
+        <v>1.046103747384375</v>
       </c>
       <c r="L21">
-        <v>1.009888730451378</v>
+        <v>1.010137224369102</v>
       </c>
       <c r="M21">
-        <v>1.043965290607761</v>
+        <v>1.042674418998008</v>
       </c>
       <c r="N21">
-        <v>1.008931159544001</v>
+        <v>1.011790970627243</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04336796336515</v>
+        <v>1.042346328362878</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045334166809373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04376730286676</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024677139471002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9820376649749573</v>
+        <v>0.9824583068285566</v>
       </c>
       <c r="D22">
-        <v>1.032442619826505</v>
+        <v>1.030310787227</v>
       </c>
       <c r="E22">
-        <v>0.9927471195088009</v>
+        <v>0.9931222741780494</v>
       </c>
       <c r="F22">
-        <v>1.027774882826888</v>
+        <v>1.026571917400693</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048486136893279</v>
+        <v>1.047777304771274</v>
       </c>
       <c r="J22">
-        <v>1.013587001094884</v>
+        <v>1.013988207993966</v>
       </c>
       <c r="K22">
-        <v>1.047397661659853</v>
+        <v>1.04530478251517</v>
       </c>
       <c r="L22">
-        <v>1.008463639762732</v>
+        <v>1.008831222619872</v>
       </c>
       <c r="M22">
-        <v>1.04281548914071</v>
+        <v>1.041634739728276</v>
       </c>
       <c r="N22">
-        <v>1.008489528509411</v>
+        <v>1.011733063853808</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042457975628735</v>
+        <v>1.041523493563005</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044652138433394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043187779489953</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024528546982968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9834780856925111</v>
+        <v>0.9838131277372468</v>
       </c>
       <c r="D23">
-        <v>1.033245068000295</v>
+        <v>1.031032163212753</v>
       </c>
       <c r="E23">
-        <v>0.9938398912234606</v>
+        <v>0.9941392973967949</v>
       </c>
       <c r="F23">
-        <v>1.028695276332584</v>
+        <v>1.027429402352683</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048837659970619</v>
+        <v>1.048077016071799</v>
       </c>
       <c r="J23">
-        <v>1.01428300475779</v>
+        <v>1.0146030202061</v>
       </c>
       <c r="K23">
-        <v>1.047887251120278</v>
+        <v>1.04571377647814</v>
       </c>
       <c r="L23">
-        <v>1.009218710156114</v>
+        <v>1.009512230206506</v>
       </c>
       <c r="M23">
-        <v>1.043418768195219</v>
+        <v>1.042175682937831</v>
       </c>
       <c r="N23">
-        <v>1.008722656605713</v>
+        <v>1.011720336351003</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042935429102435</v>
+        <v>1.041951613110801</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.04498879025382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043466500355459</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024602823233252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9890477725881168</v>
+        <v>0.9891113646149209</v>
       </c>
       <c r="D24">
-        <v>1.036382254352984</v>
+        <v>1.033870763545305</v>
       </c>
       <c r="E24">
-        <v>0.9980823819890466</v>
+        <v>0.9981422493076524</v>
       </c>
       <c r="F24">
-        <v>1.032285716024756</v>
+        <v>1.03079698807761</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050187067297712</v>
+        <v>1.049246322520638</v>
       </c>
       <c r="J24">
-        <v>1.016974036849876</v>
+        <v>1.017035103755697</v>
       </c>
       <c r="K24">
-        <v>1.049799223324817</v>
+        <v>1.047328080515445</v>
       </c>
       <c r="L24">
-        <v>1.012143257044774</v>
+        <v>1.0122020678634</v>
       </c>
       <c r="M24">
-        <v>1.045768627079091</v>
+        <v>1.044304029987435</v>
       </c>
       <c r="N24">
-        <v>1.009625537976065</v>
+        <v>1.011865305643525</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04479517622696</v>
+        <v>1.043636051761885</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046333215263304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044599712182164</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024895971020255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9953043715752212</v>
+        <v>0.9952344716034335</v>
       </c>
       <c r="D25">
-        <v>1.039933403702529</v>
+        <v>1.037132353093735</v>
       </c>
       <c r="E25">
-        <v>1.002879256753976</v>
+        <v>1.002822497615804</v>
       </c>
       <c r="F25">
-        <v>1.036360049991558</v>
+        <v>1.034680387406808</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05166524345917</v>
+        <v>1.05058198352609</v>
       </c>
       <c r="J25">
-        <v>1.019990802326941</v>
+        <v>1.019923286063419</v>
       </c>
       <c r="K25">
-        <v>1.051941892657979</v>
+        <v>1.049180341240527</v>
       </c>
       <c r="L25">
-        <v>1.015433039797436</v>
+        <v>1.015377155387761</v>
       </c>
       <c r="M25">
-        <v>1.048418976299291</v>
+        <v>1.046763174161022</v>
       </c>
       <c r="N25">
-        <v>1.010637765686283</v>
+        <v>1.012587634785293</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046892734534849</v>
+        <v>1.045582288483281</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047845332194186</v>
+        <v>1.045906202526144</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025228148005968</v>
       </c>
     </row>
   </sheetData>
